--- a/13.xlsx
+++ b/13.xlsx
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
   <si>
     <t>EDGE</t>
   </si>
@@ -1385,53 +1385,7 @@
     <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
-    <t>5月底</t>
-  </si>
-  <si>
-    <t>Foshan Port</t>
-  </si>
-  <si>
-    <t>ho222222企業</t>
-  </si>
-  <si>
-    <t>FOB</t>
-  </si>
-  <si>
-    <t>Buenaventura, Colombia</t>
-  </si>
-  <si>
-    <t>MS220404406</t>
-  </si>
-  <si>
-    <t>A) 10% Advance T/T Should Be Remmited in 3 Days after Confirming Proforma Invoice
-B) Balance 90% T/T Should Be Remitted Against Copy of B/L</t>
-  </si>
-  <si>
-    <t>430 BA+PVC</t>
-  </si>
-  <si>
-    <t>430 BA+PI</t>
-  </si>
-  <si>
-    <t>430 N4+PVC</t>
-  </si>
-  <si>
-    <t>SLIT</t>
-  </si>
-  <si>
-    <t>0.30 X 1000 X C</t>
-  </si>
-  <si>
-    <t>0.60 X 1220 X 2440</t>
-  </si>
-  <si>
-    <t>0.45 X 1220 X C</t>
-  </si>
-  <si>
-    <t>待下採購單後確認</t>
-  </si>
-  <si>
-    <t>100% T/T Before Shipment</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -4422,7 +4376,7 @@
       <c r="N7" s="209"/>
       <c r="O7" s="195"/>
       <c r="P7" s="291" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="209"/>
       <c r="R7" s="195"/>
@@ -4430,7 +4384,7 @@
         <v>13</v>
       </c>
       <c r="T7" s="293" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U7" s="209"/>
       <c r="V7" s="209"/>
@@ -4470,18 +4424,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="197"/>
-      <c r="C8" s="321" t="s">
-        <v>27</v>
-      </c>
+      <c r="C8" s="321"/>
       <c r="D8" s="199"/>
       <c r="E8" s="225" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="226"/>
       <c r="G8" s="197"/>
-      <c r="H8" s="250" t="s">
-        <v>138</v>
-      </c>
+      <c r="H8" s="250"/>
       <c r="I8" s="251"/>
       <c r="J8" s="251"/>
       <c r="K8" s="251"/>
@@ -4532,9 +4482,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="213"/>
-      <c r="C9" s="253" t="s">
-        <v>127</v>
-      </c>
+      <c r="C9" s="253"/>
       <c r="D9" s="213"/>
       <c r="E9" s="21" t="s">
         <v>17</v>
@@ -4610,7 +4558,7 @@
       <c r="N10" s="255"/>
       <c r="O10" s="256"/>
       <c r="P10" s="259" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="255"/>
       <c r="R10" s="256"/>
@@ -4618,7 +4566,7 @@
         <v>20</v>
       </c>
       <c r="T10" s="265" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U10" s="255"/>
       <c r="V10" s="255"/>
@@ -4665,9 +4613,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="253" t="s">
-        <v>139</v>
-      </c>
+      <c r="H11" s="253"/>
       <c r="I11" s="212"/>
       <c r="J11" s="212"/>
       <c r="K11" s="212"/>
@@ -4852,7 +4798,7 @@
       <c r="N14" s="255"/>
       <c r="O14" s="256"/>
       <c r="P14" s="259" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="255"/>
       <c r="R14" s="256"/>
@@ -4860,7 +4806,7 @@
         <v>17</v>
       </c>
       <c r="T14" s="277" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="U14" s="255"/>
       <c r="V14" s="255"/>
@@ -6414,619 +6360,219 @@
       <c r="AZ36" s="67"/>
     </row>
     <row r="37" spans="1:52" ht="18" customHeight="true">
-      <c r="A37" s="68">
-        <v>1</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="72">
-        <v>1</v>
-      </c>
-      <c r="F37" s="72">
-        <v>1</v>
-      </c>
-      <c r="G37" s="73">
-        <v>2175</v>
-      </c>
-      <c r="H37" s="74">
-        <v>1600</v>
-      </c>
-      <c r="I37" s="74">
-        <v>0</v>
-      </c>
-      <c r="J37" s="75">
-        <v>0</v>
-      </c>
-      <c r="K37" s="76">
-        <f>=H37+I37+J37</f>
-      </c>
-      <c r="L37" s="77">
-        <v>0</v>
-      </c>
-      <c r="M37" s="72">
-        <v>0</v>
-      </c>
-      <c r="N37" s="75">
-        <v>0</v>
-      </c>
-      <c r="O37" s="322">
-        <f>=U37+V37+W37+X37</f>
-      </c>
-      <c r="P37" s="78">
-        <f>=$T$52</f>
-      </c>
-      <c r="Q37" s="79">
-        <f>=G37-K37-M37-N37-O37-P37-L37</f>
-      </c>
-      <c r="R37" s="198">
-        <v>12000</v>
-      </c>
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="322"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="198"/>
       <c r="S37" s="199"/>
-      <c r="T37" s="80">
-        <f>=Q37*R37/1000*$T$55</f>
-      </c>
-      <c r="U37" s="74">
-        <v>0</v>
-      </c>
-      <c r="V37" s="74">
-        <v>0</v>
-      </c>
-      <c r="W37" s="74">
-        <v>45</v>
-      </c>
-      <c r="X37" s="81">
-        <v>40</v>
-      </c>
-      <c r="Y37" s="82">
-        <f>=(K37+O37)-J37</f>
-      </c>
-      <c r="Z37" s="83">
-        <f>=ROUND(R37*G37/1000,2)</f>
-      </c>
-      <c r="AA37" s="83">
-        <f>=ROUND((H37+I37)*R37/1000,0)</f>
-      </c>
-      <c r="AB37" s="83">
-        <f>=ROUND(O37*R37/1000,0)</f>
-      </c>
-      <c r="AC37" s="83">
-        <f>=ROUND((H37+I37+O37)*R37/1000,0)</f>
-      </c>
-      <c r="AD37" s="84">
-        <f>=N37*R37/1000</f>
-      </c>
-      <c r="AE37" s="62">
-        <f>=(J37+L37)*R37/1000</f>
-      </c>
-      <c r="AF37" s="85">
-        <f>=IF(E37=1,R37/1000,"0")</f>
-      </c>
-      <c r="AG37" s="86">
-        <f>=IF(E37=2,R37/1000,"0")</f>
-      </c>
-      <c r="AH37" s="62">
-        <f>=IF(E37=3,R37/1000,"0")</f>
-      </c>
-      <c r="AI37" s="62">
-        <f>=IF(E37=4,R37/1000,"0")</f>
-      </c>
-      <c r="AJ37" s="64">
-        <f>=IF(E37=5,R37/1000,"0")</f>
-      </c>
-      <c r="AK37" s="87">
-        <f>=IF(E37=1,AA37,"0")</f>
-      </c>
-      <c r="AL37" s="62">
-        <f>=IF(E37=2,AA37,"0")</f>
-      </c>
-      <c r="AM37" s="62">
-        <f>=IF(E37=3,AA37,"0")</f>
-      </c>
-      <c r="AN37" s="62">
-        <f>=IF(E37=4,AA37,"0")</f>
-      </c>
-      <c r="AO37" s="64">
-        <f>=IF(E37=5,AA37,"0")</f>
-      </c>
-      <c r="AP37" s="87">
-        <f>=IF(F37=1,AB37,"0")</f>
-      </c>
-      <c r="AQ37" s="62">
-        <f>=IF(F37=2,AB37,"0")</f>
-      </c>
-      <c r="AR37" s="62">
-        <f>=IF(F37=3,AB37,"0")</f>
-      </c>
-      <c r="AS37" s="62">
-        <f>=IF(F37=4,AB37,"0")</f>
-      </c>
-      <c r="AT37" s="64">
-        <f>=IF(F37=5,AB37,"0")</f>
-      </c>
-      <c r="AU37" s="87">
-        <f>=IF(E37=1,Z37,"0")</f>
-      </c>
-      <c r="AV37" s="62">
-        <f>=IF(E37=2,Z37,"0")</f>
-      </c>
-      <c r="AW37" s="62">
-        <f>=IF(E37=3,Z37,"0")</f>
-      </c>
-      <c r="AX37" s="62">
-        <f>=IF(E37=4,Z37,"0")</f>
-      </c>
-      <c r="AY37" s="64">
-        <f>=IF(E37=5,Z37,"0")</f>
-      </c>
+      <c r="T37" s="80"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="84"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="85"/>
+      <c r="AG37" s="86"/>
+      <c r="AH37" s="62"/>
+      <c r="AI37" s="62"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="87"/>
+      <c r="AL37" s="62"/>
+      <c r="AM37" s="62"/>
+      <c r="AN37" s="62"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="87"/>
+      <c r="AQ37" s="62"/>
+      <c r="AR37" s="62"/>
+      <c r="AS37" s="62"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="87"/>
+      <c r="AV37" s="62"/>
+      <c r="AW37" s="62"/>
+      <c r="AX37" s="62"/>
+      <c r="AY37" s="64"/>
       <c r="AZ37" s="67"/>
     </row>
     <row r="38" spans="1:52" ht="18" customHeight="true">
-      <c r="A38" s="68">
-        <v>2</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="72">
-        <v>1</v>
-      </c>
-      <c r="F38" s="72">
-        <v>1</v>
-      </c>
-      <c r="G38" s="73">
-        <v>2190</v>
-      </c>
-      <c r="H38" s="74">
-        <v>1600</v>
-      </c>
-      <c r="I38" s="74">
-        <v>0</v>
-      </c>
-      <c r="J38" s="75">
-        <v>0</v>
-      </c>
-      <c r="K38" s="76">
-        <f>=H38+I38+J38</f>
-      </c>
-      <c r="L38" s="77">
-        <v>0</v>
-      </c>
-      <c r="M38" s="72">
-        <v>0</v>
-      </c>
-      <c r="N38" s="75">
-        <v>0</v>
-      </c>
-      <c r="O38" s="322">
-        <f>=U38+V38+W38+X38</f>
-      </c>
-      <c r="P38" s="78">
-        <f>=$T$52</f>
-      </c>
-      <c r="Q38" s="79">
-        <f>=G38-K38-M38-N38-O38-P38-L38</f>
-      </c>
-      <c r="R38" s="198">
-        <v>4000</v>
-      </c>
+      <c r="A38" s="68"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="322"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="198"/>
       <c r="S38" s="199"/>
-      <c r="T38" s="80">
-        <f>=Q38*R38/1000*$T$55</f>
-      </c>
-      <c r="U38" s="74">
-        <v>0</v>
-      </c>
-      <c r="V38" s="74">
-        <v>0</v>
-      </c>
-      <c r="W38" s="74">
-        <v>45</v>
-      </c>
-      <c r="X38" s="81">
-        <v>55</v>
-      </c>
-      <c r="Y38" s="82">
-        <f>=(K38+O38)-J38</f>
-      </c>
-      <c r="Z38" s="83">
-        <f>=ROUND(R38*G38/1000,2)</f>
-      </c>
-      <c r="AA38" s="83">
-        <f>=ROUND((H38+I38)*R38/1000,0)</f>
-      </c>
-      <c r="AB38" s="83">
-        <f>=ROUND(O38*R38/1000,0)</f>
-      </c>
-      <c r="AC38" s="83">
-        <f>=ROUND((H38+I38+O38)*R38/1000,0)</f>
-      </c>
-      <c r="AD38" s="84">
-        <f>=N38*R38/1000</f>
-      </c>
-      <c r="AE38" s="62">
-        <f>=(J38+L38)*R38/1000</f>
-      </c>
-      <c r="AF38" s="85">
-        <f>=IF(E38=1,R38/1000,"0")</f>
-      </c>
-      <c r="AG38" s="86">
-        <f>=IF(E38=2,R38/1000,"0")</f>
-      </c>
-      <c r="AH38" s="62">
-        <f>=IF(E38=3,R38/1000,"0")</f>
-      </c>
-      <c r="AI38" s="62">
-        <f>=IF(E38=4,R38/1000,"0")</f>
-      </c>
-      <c r="AJ38" s="64">
-        <f>=IF(E38=5,R38/1000,"0")</f>
-      </c>
-      <c r="AK38" s="87">
-        <f>=IF(E38=1,AA38,"0")</f>
-      </c>
-      <c r="AL38" s="62">
-        <f>=IF(E38=2,AA38,"0")</f>
-      </c>
-      <c r="AM38" s="62">
-        <f>=IF(E38=3,AA38,"0")</f>
-      </c>
-      <c r="AN38" s="62">
-        <f>=IF(E38=4,AA38,"0")</f>
-      </c>
-      <c r="AO38" s="64">
-        <f>=IF(E38=5,AA38,"0")</f>
-      </c>
-      <c r="AP38" s="87">
-        <f>=IF(F38=1,AB38,"0")</f>
-      </c>
-      <c r="AQ38" s="62">
-        <f>=IF(F38=2,AB38,"0")</f>
-      </c>
-      <c r="AR38" s="62">
-        <f>=IF(F38=3,AB38,"0")</f>
-      </c>
-      <c r="AS38" s="62">
-        <f>=IF(F38=4,AB38,"0")</f>
-      </c>
-      <c r="AT38" s="64">
-        <f>=IF(F38=5,AB38,"0")</f>
-      </c>
-      <c r="AU38" s="87">
-        <f>=IF(E38=1,Z38,"0")</f>
-      </c>
-      <c r="AV38" s="62">
-        <f>=IF(E38=2,Z38,"0")</f>
-      </c>
-      <c r="AW38" s="62">
-        <f>=IF(E38=3,Z38,"0")</f>
-      </c>
-      <c r="AX38" s="62">
-        <f>=IF(E38=4,Z38,"0")</f>
-      </c>
-      <c r="AY38" s="64">
-        <f>=IF(E38=5,Z38,"0")</f>
-      </c>
+      <c r="T38" s="80"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="83"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="83"/>
+      <c r="AC38" s="83"/>
+      <c r="AD38" s="84"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="85"/>
+      <c r="AG38" s="86"/>
+      <c r="AH38" s="62"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="64"/>
+      <c r="AK38" s="87"/>
+      <c r="AL38" s="62"/>
+      <c r="AM38" s="62"/>
+      <c r="AN38" s="62"/>
+      <c r="AO38" s="64"/>
+      <c r="AP38" s="87"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="87"/>
+      <c r="AV38" s="62"/>
+      <c r="AW38" s="62"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="64"/>
       <c r="AZ38" s="67"/>
     </row>
     <row r="39" spans="1:52" ht="18" customHeight="true">
-      <c r="A39" s="68">
-        <v>3</v>
-      </c>
-      <c r="B39" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="72">
-        <v>1</v>
-      </c>
-      <c r="F39" s="72">
-        <v>1</v>
-      </c>
-      <c r="G39" s="73">
-        <v>2390</v>
-      </c>
-      <c r="H39" s="74">
-        <v>1720</v>
-      </c>
-      <c r="I39" s="74">
-        <v>0</v>
-      </c>
-      <c r="J39" s="75">
-        <v>0</v>
-      </c>
-      <c r="K39" s="76">
-        <f>=H39+I39+J39</f>
-      </c>
-      <c r="L39" s="77">
-        <v>0</v>
-      </c>
-      <c r="M39" s="72">
-        <v>0</v>
-      </c>
-      <c r="N39" s="75">
-        <v>0</v>
-      </c>
-      <c r="O39" s="322">
-        <f>=U39+V39+W39+X39</f>
-      </c>
-      <c r="P39" s="78">
-        <f>=$T$52</f>
-      </c>
-      <c r="Q39" s="79">
-        <f>=G39-K39-M39-N39-O39-P39-L39</f>
-      </c>
-      <c r="R39" s="198">
-        <v>5000</v>
-      </c>
+      <c r="A39" s="68"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="322"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="198"/>
       <c r="S39" s="199"/>
-      <c r="T39" s="80">
-        <f>=Q39*R39/1000*$T$55</f>
-      </c>
-      <c r="U39" s="74">
-        <v>0</v>
-      </c>
-      <c r="V39" s="74">
-        <v>0</v>
-      </c>
-      <c r="W39" s="74">
-        <v>0</v>
-      </c>
-      <c r="X39" s="81">
-        <v>60</v>
-      </c>
-      <c r="Y39" s="82">
-        <f>=(K39+O39)-J39</f>
-      </c>
-      <c r="Z39" s="83">
-        <f>=ROUND(R39*G39/1000,2)</f>
-      </c>
-      <c r="AA39" s="83">
-        <f>=ROUND((H39+I39)*R39/1000,0)</f>
-      </c>
-      <c r="AB39" s="83">
-        <f>=ROUND(O39*R39/1000,0)</f>
-      </c>
-      <c r="AC39" s="83">
-        <f>=ROUND((H39+I39+O39)*R39/1000,0)</f>
-      </c>
-      <c r="AD39" s="84">
-        <f>=N39*R39/1000</f>
-      </c>
-      <c r="AE39" s="62">
-        <f>=(J39+L39)*R39/1000</f>
-      </c>
-      <c r="AF39" s="85">
-        <f>=IF(E39=1,R39/1000,"0")</f>
-      </c>
-      <c r="AG39" s="86">
-        <f>=IF(E39=2,R39/1000,"0")</f>
-      </c>
-      <c r="AH39" s="62">
-        <f>=IF(E39=3,R39/1000,"0")</f>
-      </c>
-      <c r="AI39" s="62">
-        <f>=IF(E39=4,R39/1000,"0")</f>
-      </c>
-      <c r="AJ39" s="64">
-        <f>=IF(E39=5,R39/1000,"0")</f>
-      </c>
-      <c r="AK39" s="87">
-        <f>=IF(E39=1,AA39,"0")</f>
-      </c>
-      <c r="AL39" s="62">
-        <f>=IF(E39=2,AA39,"0")</f>
-      </c>
-      <c r="AM39" s="62">
-        <f>=IF(E39=3,AA39,"0")</f>
-      </c>
-      <c r="AN39" s="62">
-        <f>=IF(E39=4,AA39,"0")</f>
-      </c>
-      <c r="AO39" s="64">
-        <f>=IF(E39=5,AA39,"0")</f>
-      </c>
-      <c r="AP39" s="87">
-        <f>=IF(F39=1,AB39,"0")</f>
-      </c>
-      <c r="AQ39" s="62">
-        <f>=IF(F39=2,AB39,"0")</f>
-      </c>
-      <c r="AR39" s="62">
-        <f>=IF(F39=3,AB39,"0")</f>
-      </c>
-      <c r="AS39" s="62">
-        <f>=IF(F39=4,AB39,"0")</f>
-      </c>
-      <c r="AT39" s="64">
-        <f>=IF(F39=5,AB39,"0")</f>
-      </c>
-      <c r="AU39" s="87">
-        <f>=IF(E39=1,Z39,"0")</f>
-      </c>
-      <c r="AV39" s="62">
-        <f>=IF(E39=2,Z39,"0")</f>
-      </c>
-      <c r="AW39" s="62">
-        <f>=IF(E39=3,Z39,"0")</f>
-      </c>
-      <c r="AX39" s="62">
-        <f>=IF(E39=4,Z39,"0")</f>
-      </c>
-      <c r="AY39" s="64">
-        <f>=IF(E39=5,Z39,"0")</f>
-      </c>
+      <c r="T39" s="80"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="83"/>
+      <c r="AD39" s="84"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="85"/>
+      <c r="AG39" s="86"/>
+      <c r="AH39" s="62"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="64"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="62"/>
+      <c r="AM39" s="62"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="64"/>
+      <c r="AP39" s="87"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="64"/>
+      <c r="AU39" s="87"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="64"/>
       <c r="AZ39" s="67"/>
     </row>
     <row r="40" spans="1:52" ht="18" customHeight="true">
-      <c r="A40" s="68">
-        <v>4</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="72">
-        <v>1</v>
-      </c>
-      <c r="F40" s="72">
-        <v>1</v>
-      </c>
-      <c r="G40" s="73">
-        <v>2300</v>
-      </c>
-      <c r="H40" s="74">
-        <v>1605</v>
-      </c>
-      <c r="I40" s="74">
-        <v>0</v>
-      </c>
-      <c r="J40" s="75">
-        <v>0</v>
-      </c>
-      <c r="K40" s="76">
-        <f>=H40+I40+J40</f>
-      </c>
-      <c r="L40" s="77">
-        <v>0</v>
-      </c>
-      <c r="M40" s="72">
-        <v>0</v>
-      </c>
-      <c r="N40" s="75">
-        <v>0</v>
-      </c>
-      <c r="O40" s="322">
-        <f>=U40+V40+W40+X40</f>
-      </c>
-      <c r="P40" s="78">
-        <f>=$T$52</f>
-      </c>
-      <c r="Q40" s="79">
-        <f>=G40-K40-M40-N40-O40-P40-L40</f>
-      </c>
-      <c r="R40" s="198">
-        <v>4000</v>
-      </c>
+      <c r="A40" s="68"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="322"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="198"/>
       <c r="S40" s="199"/>
-      <c r="T40" s="80">
-        <f>=Q40*R40/1000*$T$55</f>
-      </c>
-      <c r="U40" s="74">
-        <v>0</v>
-      </c>
-      <c r="V40" s="74">
-        <v>45</v>
-      </c>
-      <c r="W40" s="74">
-        <v>55</v>
-      </c>
-      <c r="X40" s="81">
-        <v>40</v>
-      </c>
-      <c r="Y40" s="82">
-        <f>=(K40+O40)-J40</f>
-      </c>
-      <c r="Z40" s="83">
-        <f>=ROUND(R40*G40/1000,2)</f>
-      </c>
-      <c r="AA40" s="83">
-        <f>=ROUND((H40+I40)*R40/1000,0)</f>
-      </c>
-      <c r="AB40" s="83">
-        <f>=ROUND(O40*R40/1000,0)</f>
-      </c>
-      <c r="AC40" s="83">
-        <f>=ROUND((H40+I40+O40)*R40/1000,0)</f>
-      </c>
-      <c r="AD40" s="84">
-        <f>=N40*R40/1000</f>
-      </c>
-      <c r="AE40" s="62">
-        <f>=(J40+L40)*R40/1000</f>
-      </c>
-      <c r="AF40" s="85">
-        <f>=IF(E40=1,R40/1000,"0")</f>
-      </c>
-      <c r="AG40" s="86">
-        <f>=IF(E40=2,R40/1000,"0")</f>
-      </c>
-      <c r="AH40" s="62">
-        <f>=IF(E40=3,R40/1000,"0")</f>
-      </c>
-      <c r="AI40" s="62">
-        <f>=IF(E40=4,R40/1000,"0")</f>
-      </c>
-      <c r="AJ40" s="64">
-        <f>=IF(E40=5,R40/1000,"0")</f>
-      </c>
-      <c r="AK40" s="87">
-        <f>=IF(E40=1,AA40,"0")</f>
-      </c>
-      <c r="AL40" s="62">
-        <f>=IF(E40=2,AA40,"0")</f>
-      </c>
-      <c r="AM40" s="62">
-        <f>=IF(E40=3,AA40,"0")</f>
-      </c>
-      <c r="AN40" s="62">
-        <f>=IF(E40=4,AA40,"0")</f>
-      </c>
-      <c r="AO40" s="64">
-        <f>=IF(E40=5,AA40,"0")</f>
-      </c>
-      <c r="AP40" s="87">
-        <f>=IF(F40=1,AB40,"0")</f>
-      </c>
-      <c r="AQ40" s="62">
-        <f>=IF(F40=2,AB40,"0")</f>
-      </c>
-      <c r="AR40" s="62">
-        <f>=IF(F40=3,AB40,"0")</f>
-      </c>
-      <c r="AS40" s="62">
-        <f>=IF(F40=4,AB40,"0")</f>
-      </c>
-      <c r="AT40" s="64">
-        <f>=IF(F40=5,AB40,"0")</f>
-      </c>
-      <c r="AU40" s="87">
-        <f>=IF(E40=1,Z40,"0")</f>
-      </c>
-      <c r="AV40" s="62">
-        <f>=IF(E40=2,Z40,"0")</f>
-      </c>
-      <c r="AW40" s="62">
-        <f>=IF(E40=3,Z40,"0")</f>
-      </c>
-      <c r="AX40" s="62">
-        <f>=IF(E40=4,Z40,"0")</f>
-      </c>
-      <c r="AY40" s="64">
-        <f>=IF(E40=5,Z40,"0")</f>
-      </c>
+      <c r="T40" s="80"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="83"/>
+      <c r="AD40" s="84"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="85"/>
+      <c r="AG40" s="86"/>
+      <c r="AH40" s="62"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="64"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="62"/>
+      <c r="AM40" s="62"/>
+      <c r="AN40" s="62"/>
+      <c r="AO40" s="64"/>
+      <c r="AP40" s="87"/>
+      <c r="AQ40" s="62"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="62"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="87"/>
+      <c r="AV40" s="62"/>
+      <c r="AW40" s="62"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="64"/>
       <c r="AZ40" s="67"/>
     </row>
     <row r="41" spans="1:52" ht="18" customHeight="true">
@@ -8008,7 +7554,7 @@
       <c r="R55" s="230"/>
       <c r="S55" s="193"/>
       <c r="T55" s="238">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U55" s="193"/>
       <c r="V55" s="6"/>

--- a/13.xlsx
+++ b/13.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\桌面\NEW_folder\pi_sp\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="2" r:id="rId1"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>EDGE</t>
   </si>
@@ -806,9 +806,6 @@
       </rPr>
       <t>總價 (USD)</t>
     </r>
-  </si>
-  <si>
-    <t>萬裕隆/430</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1385,7 +1382,62 @@
     <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
-    <t/>
+    <t>5月底</t>
+  </si>
+  <si>
+    <t>Foshan Port</t>
+  </si>
+  <si>
+    <t>就是很炫 Cop.</t>
+  </si>
+  <si>
+    <t>CIF Buenaventura, Colombia</t>
+  </si>
+  <si>
+    <t>Buenaventura, Colombia</t>
+  </si>
+  <si>
+    <t>PS220404405</t>
+  </si>
+  <si>
+    <t>A) 10% Advance T/T Should Be Remmited in 3 Days after Confirming Proforma Invoice
+B) Balance 90% T/T Should Be Remitted Against Copy of B/L</t>
+  </si>
+  <si>
+    <t>430 BA+PVC</t>
+  </si>
+  <si>
+    <t>430 BA+PI</t>
+  </si>
+  <si>
+    <t>430 N4+PVC</t>
+  </si>
+  <si>
+    <t>SLIT</t>
+  </si>
+  <si>
+    <t>0.60 X 1220 X C</t>
+  </si>
+  <si>
+    <t>0.60 X 1220 X 2440</t>
+  </si>
+  <si>
+    <t>0.30 X 1000 X C</t>
+  </si>
+  <si>
+    <t>0.45 X 1220 X C</t>
+  </si>
+  <si>
+    <t>萬裕隆/430</t>
+  </si>
+  <si>
+    <t>FOB</t>
+  </si>
+  <si>
+    <t>待下採購單後確認</t>
+  </si>
+  <si>
+    <t>100% T/T Before Shipment</t>
   </si>
 </sst>
 </file>
@@ -3196,101 +3248,14 @@
     <xf numFmtId="0" fontId="76" fillId="3" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3301,20 +3266,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
@@ -3322,92 +3365,14 @@
     <xf numFmtId="185" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
@@ -3415,47 +3380,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3487,14 +3464,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -3502,91 +3500,145 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="3" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3949,89 +4001,89 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35:S35"/>
+    <sheetView tabSelected="true" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="true"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="7.5"/>
-    <col customWidth="true" max="2" min="2" width="11.5"/>
-    <col customWidth="true" max="3" min="3" width="6.5"/>
-    <col customWidth="true" max="4" min="4" width="16.5"/>
-    <col customWidth="true" max="5" min="5" width="4.875"/>
-    <col customWidth="true" max="6" min="6" width="4.625"/>
-    <col customWidth="true" max="7" min="7" width="6.875"/>
-    <col customWidth="true" max="8" min="8" width="6.5"/>
-    <col customWidth="true" max="9" min="9" width="7.25"/>
-    <col customWidth="true" max="10" min="10" width="5.5"/>
-    <col customWidth="true" max="11" min="11" width="10.25"/>
-    <col customWidth="true" max="12" min="12" width="12.375"/>
-    <col customWidth="true" max="13" min="13" width="7.625"/>
-    <col customWidth="true" max="15" min="14" width="7.375"/>
-    <col customWidth="true" max="16" min="16" width="7.125"/>
-    <col customWidth="true" max="17" min="17" width="7.875"/>
-    <col customWidth="true" max="18" min="18" width="5.375"/>
-    <col customWidth="true" max="19" min="19" width="9.75"/>
+    <col customWidth="true" max="1" min="1" width="7.44140625"/>
+    <col customWidth="true" max="2" min="2" width="11.44140625"/>
+    <col customWidth="true" max="3" min="3" width="6.44140625"/>
+    <col customWidth="true" max="4" min="4" width="16.44140625"/>
+    <col customWidth="true" max="5" min="5" width="4.88671875"/>
+    <col customWidth="true" max="6" min="6" width="4.6640625"/>
+    <col customWidth="true" max="7" min="7" width="6.88671875"/>
+    <col customWidth="true" max="8" min="8" width="6.44140625"/>
+    <col customWidth="true" max="9" min="9" width="7.21875"/>
+    <col customWidth="true" max="10" min="10" width="5.44140625"/>
+    <col customWidth="true" max="11" min="11" width="10.21875"/>
+    <col customWidth="true" max="12" min="12" width="12.33203125"/>
+    <col customWidth="true" max="13" min="13" width="7.6640625"/>
+    <col customWidth="true" max="15" min="14" width="7.33203125"/>
+    <col customWidth="true" max="16" min="16" width="7.109375"/>
+    <col customWidth="true" max="17" min="17" width="7.88671875"/>
+    <col customWidth="true" max="18" min="18" width="5.33203125"/>
+    <col customWidth="true" max="19" min="19" width="9.77734375"/>
     <col customWidth="true" max="20" min="20" width="11"/>
-    <col customWidth="true" max="21" min="21" width="6.125"/>
-    <col customWidth="true" max="22" min="22" width="5.875"/>
-    <col customWidth="true" max="23" min="23" width="5.625"/>
-    <col customWidth="true" max="24" min="24" width="5.5"/>
-    <col customWidth="true" max="25" min="25" width="5.375"/>
-    <col customWidth="true" max="26" min="26" width="10.625"/>
-    <col customWidth="true" max="27" min="27" width="9.25"/>
-    <col customWidth="true" max="28" min="28" width="8.5"/>
-    <col customWidth="true" max="29" min="29" width="10.375"/>
+    <col customWidth="true" max="21" min="21" width="6.109375"/>
+    <col customWidth="true" max="22" min="22" width="5.88671875"/>
+    <col customWidth="true" max="23" min="23" width="5.6640625"/>
+    <col customWidth="true" max="24" min="24" width="5.44140625"/>
+    <col customWidth="true" max="25" min="25" width="5.33203125"/>
+    <col customWidth="true" max="26" min="26" width="10.6640625"/>
+    <col customWidth="true" max="27" min="27" width="9.21875"/>
+    <col customWidth="true" max="28" min="28" width="8.44140625"/>
+    <col customWidth="true" max="29" min="29" width="10.33203125"/>
     <col customWidth="true" max="31" min="30" width="7"/>
-    <col customWidth="true" max="33" min="32" width="3.625"/>
-    <col customWidth="true" max="34" min="34" width="2.375"/>
-    <col customWidth="true" max="35" min="35" width="3.25"/>
-    <col customWidth="true" max="36" min="36" width="2.375"/>
-    <col customWidth="true" max="37" min="37" width="9.375"/>
-    <col customWidth="true" max="38" min="38" width="6.75"/>
-    <col customWidth="true" max="39" min="39" width="5.625"/>
-    <col customWidth="true" max="40" min="40" width="6.75"/>
-    <col customWidth="true" max="41" min="41" width="2.5"/>
-    <col customWidth="true" max="42" min="42" width="7.875"/>
-    <col customWidth="true" max="44" min="43" width="5.25"/>
-    <col customWidth="true" max="45" min="45" width="4.125"/>
-    <col customWidth="true" max="46" min="46" width="6.75"/>
-    <col customWidth="true" max="47" min="47" width="8.25"/>
-    <col customWidth="true" max="48" min="48" width="8.5"/>
-    <col customWidth="true" max="49" min="49" width="6.375"/>
-    <col customWidth="true" max="50" min="50" width="5.75"/>
-    <col customWidth="true" max="51" min="51" width="3.625"/>
+    <col customWidth="true" max="33" min="32" width="3.6640625"/>
+    <col customWidth="true" max="34" min="34" width="2.33203125"/>
+    <col customWidth="true" max="35" min="35" width="3.21875"/>
+    <col customWidth="true" max="36" min="36" width="2.33203125"/>
+    <col customWidth="true" max="37" min="37" width="9.33203125"/>
+    <col customWidth="true" max="38" min="38" width="6.77734375"/>
+    <col customWidth="true" max="39" min="39" width="5.6640625"/>
+    <col customWidth="true" max="40" min="40" width="6.77734375"/>
+    <col customWidth="true" max="41" min="41" width="2.44140625"/>
+    <col customWidth="true" max="42" min="42" width="7.88671875"/>
+    <col customWidth="true" max="44" min="43" width="5.21875"/>
+    <col customWidth="true" max="45" min="45" width="4.109375"/>
+    <col customWidth="true" max="46" min="46" width="6.77734375"/>
+    <col customWidth="true" max="47" min="47" width="8.21875"/>
+    <col customWidth="true" max="48" min="48" width="8.44140625"/>
+    <col customWidth="true" max="49" min="49" width="6.33203125"/>
+    <col customWidth="true" max="50" min="50" width="5.77734375"/>
+    <col customWidth="true" max="51" min="51" width="3.6640625"/>
     <col customWidth="true" max="52" min="52" width="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27" customHeight="true">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -4062,32 +4114,32 @@
       <c r="AZ1" s="1"/>
     </row>
     <row r="2" spans="1:52" ht="29.25" customHeight="true">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -4117,7 +4169,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="16.5">
+    <row r="3" spans="1:52" ht="16.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -4174,35 +4226,35 @@
     <row r="4" spans="1:52" ht="18.75" customHeight="true">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="218"/>
-      <c r="E4" s="282">
+      <c r="D4" s="212"/>
+      <c r="E4" s="257">
         <f>=T24-I24-S27-S28-S29-S30-H29-H30</f>
       </c>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="218"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="212"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="13"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="289" t="s">
+      <c r="P4" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="283" t="s">
+      <c r="Q4" s="197"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="269"/>
-      <c r="U4" s="269"/>
-      <c r="V4" s="269"/>
-      <c r="W4" s="218"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="212"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="8"/>
@@ -4236,35 +4288,35 @@
     <row r="5" spans="1:52" ht="18.75" customHeight="true">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="286" t="s">
+      <c r="C5" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="284">
+      <c r="D5" s="212"/>
+      <c r="E5" s="259">
         <f>=E4/T24</f>
       </c>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="218"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="212"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="215" t="s">
+      <c r="P5" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="285" t="s">
-        <v>124</v>
+      <c r="Q5" s="209"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="260" t="s">
+        <v>123</v>
       </c>
-      <c r="T5" s="269"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="218"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="212"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="8"/>
@@ -4354,42 +4406,42 @@
       <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="218"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="288" t="s">
+      <c r="F7" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="218"/>
+      <c r="G7" s="212"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="288" t="s">
+      <c r="I7" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="269"/>
+      <c r="J7" s="211"/>
       <c r="K7" s="184"/>
       <c r="L7" s="185"/>
-      <c r="M7" s="290" t="s">
+      <c r="M7" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="291" t="s">
+      <c r="N7" s="266"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="271" t="s">
         <v>124</v>
       </c>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="195"/>
-      <c r="S7" s="292" t="s">
+      <c r="Q7" s="266"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="293" t="s">
-        <v>124</v>
+      <c r="T7" s="275" t="s">
+        <v>127</v>
       </c>
-      <c r="U7" s="209"/>
-      <c r="V7" s="209"/>
-      <c r="W7" s="209"/>
-      <c r="X7" s="210"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="266"/>
+      <c r="W7" s="266"/>
+      <c r="X7" s="276"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -4420,34 +4472,38 @@
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A8" s="294" t="s">
+      <c r="A8" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="197"/>
-      <c r="C8" s="321"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="225" t="s">
+      <c r="B8" s="194"/>
+      <c r="C8" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="202"/>
+      <c r="E8" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="226"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="251"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="260"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="260"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="267"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="283" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="238"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="269"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="272"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="277"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4478,34 +4534,38 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A9" s="295" t="s">
+      <c r="A9" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="213"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="252" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="199"/>
       <c r="E9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="253"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="251"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="251"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="264"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="251"/>
-      <c r="V9" s="251"/>
-      <c r="W9" s="251"/>
-      <c r="X9" s="252"/>
+      <c r="H9" s="252" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="273"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="278"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -4536,42 +4596,42 @@
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A10" s="294" t="s">
+      <c r="A10" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="225" t="s">
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="226"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="226"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="226"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="254" t="s">
+      <c r="F10" s="197"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="284" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="255"/>
-      <c r="O10" s="256"/>
-      <c r="P10" s="259" t="s">
-        <v>124</v>
+      <c r="N10" s="285"/>
+      <c r="O10" s="286"/>
+      <c r="P10" s="287" t="s">
+        <v>125</v>
       </c>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="262" t="s">
+      <c r="Q10" s="285"/>
+      <c r="R10" s="286"/>
+      <c r="S10" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="265" t="s">
-        <v>124</v>
+      <c r="T10" s="289" t="s">
+        <v>128</v>
       </c>
-      <c r="U10" s="255"/>
-      <c r="V10" s="255"/>
-      <c r="W10" s="255"/>
-      <c r="X10" s="266"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="285"/>
+      <c r="W10" s="285"/>
+      <c r="X10" s="290"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -4602,34 +4662,34 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A11" s="295" t="s">
+      <c r="A11" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="304"/>
-      <c r="D11" s="213"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="207"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="202"/>
-      <c r="S11" s="263"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="220"/>
-      <c r="V11" s="220"/>
-      <c r="W11" s="220"/>
-      <c r="X11" s="267"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="269"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="277"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -4660,34 +4720,34 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A12" s="294" t="s">
+      <c r="A12" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="225" t="s">
+      <c r="B12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="226"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="202"/>
-      <c r="P12" s="260"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="202"/>
-      <c r="S12" s="263"/>
-      <c r="T12" s="260"/>
-      <c r="U12" s="220"/>
-      <c r="V12" s="220"/>
-      <c r="W12" s="220"/>
-      <c r="X12" s="267"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="269"/>
+      <c r="P12" s="272"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="277"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -4718,34 +4778,34 @@
       <c r="AZ12" s="1"/>
     </row>
     <row r="13" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A13" s="295" t="s">
+      <c r="A13" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="213"/>
-      <c r="C13" s="304"/>
-      <c r="D13" s="213"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="199"/>
       <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="207"/>
-      <c r="M13" s="258"/>
-      <c r="N13" s="251"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="251"/>
-      <c r="R13" s="199"/>
-      <c r="S13" s="264"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="251"/>
-      <c r="V13" s="251"/>
-      <c r="W13" s="251"/>
-      <c r="X13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="221"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="273"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="273"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="278"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -4776,42 +4836,42 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A14" s="294" t="s">
+      <c r="A14" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="225" t="s">
+      <c r="B14" s="194"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="226"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="228"/>
-      <c r="M14" s="254" t="s">
+      <c r="F14" s="197"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="255"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="259" t="s">
-        <v>124</v>
+      <c r="N14" s="285"/>
+      <c r="O14" s="286"/>
+      <c r="P14" s="287" t="s">
+        <v>126</v>
       </c>
-      <c r="Q14" s="255"/>
-      <c r="R14" s="256"/>
-      <c r="S14" s="275" t="s">
+      <c r="Q14" s="285"/>
+      <c r="R14" s="286"/>
+      <c r="S14" s="295" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="277" t="s">
-        <v>124</v>
+      <c r="T14" s="297" t="s">
+        <v>129</v>
       </c>
-      <c r="U14" s="255"/>
-      <c r="V14" s="255"/>
-      <c r="W14" s="255"/>
-      <c r="X14" s="266"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="285"/>
+      <c r="X14" s="290"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -4842,34 +4902,34 @@
       <c r="AZ14" s="1"/>
     </row>
     <row r="15" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A15" s="295" t="s">
+      <c r="A15" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="213"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="213"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="257"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="260"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="202"/>
-      <c r="S15" s="263"/>
-      <c r="T15" s="260"/>
-      <c r="U15" s="220"/>
-      <c r="V15" s="220"/>
-      <c r="W15" s="220"/>
-      <c r="X15" s="267"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="269"/>
+      <c r="P15" s="272"/>
+      <c r="Q15" s="238"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="272"/>
+      <c r="U15" s="238"/>
+      <c r="V15" s="238"/>
+      <c r="W15" s="238"/>
+      <c r="X15" s="277"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -4900,34 +4960,34 @@
       <c r="AZ15" s="1"/>
     </row>
     <row r="16" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A16" s="294" t="s">
+      <c r="A16" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="225" t="s">
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="226"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="202"/>
-      <c r="P16" s="260"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="202"/>
-      <c r="S16" s="263"/>
-      <c r="T16" s="260"/>
-      <c r="U16" s="220"/>
-      <c r="V16" s="220"/>
-      <c r="W16" s="220"/>
-      <c r="X16" s="267"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="269"/>
+      <c r="P16" s="272"/>
+      <c r="Q16" s="238"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="272"/>
+      <c r="U16" s="238"/>
+      <c r="V16" s="238"/>
+      <c r="W16" s="238"/>
+      <c r="X16" s="277"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -4958,34 +5018,34 @@
       <c r="AZ16" s="1"/>
     </row>
     <row r="17" spans="1:52" ht="19.5" customHeight="true">
-      <c r="A17" s="295" t="s">
+      <c r="A17" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="304"/>
-      <c r="D17" s="213"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="272"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="274"/>
-      <c r="Q17" s="272"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="276"/>
-      <c r="T17" s="274"/>
-      <c r="U17" s="272"/>
-      <c r="V17" s="272"/>
-      <c r="W17" s="272"/>
-      <c r="X17" s="278"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="294"/>
+      <c r="Q17" s="214"/>
+      <c r="R17" s="293"/>
+      <c r="S17" s="296"/>
+      <c r="T17" s="294"/>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="215"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -5016,42 +5076,42 @@
       <c r="AZ17" s="1"/>
     </row>
     <row r="18" spans="1:52" ht="18.75" customHeight="true">
-      <c r="A18" s="298" t="s">
+      <c r="A18" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="226"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="296" t="s">
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="226"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="296" t="s">
+      <c r="F18" s="197"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="228"/>
-      <c r="M18" s="298" t="s">
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="226"/>
-      <c r="O18" s="197"/>
-      <c r="P18" s="296" t="s">
+      <c r="N18" s="197"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="296" t="s">
+      <c r="Q18" s="197"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="226"/>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="228"/>
+      <c r="T18" s="197"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="219"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -5082,48 +5142,48 @@
       <c r="AZ18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="22.5" customHeight="true">
-      <c r="A19" s="241">
+      <c r="A19" s="239">
         <v>1</v>
       </c>
-      <c r="B19" s="193"/>
-      <c r="C19" s="302" t="s">
-        <v>27</v>
+      <c r="B19" s="204"/>
+      <c r="C19" s="245" t="s">
+        <v>138</v>
       </c>
-      <c r="D19" s="193"/>
-      <c r="E19" s="303">
+      <c r="D19" s="204"/>
+      <c r="E19" s="244">
         <f>=AF42</f>
       </c>
-      <c r="F19" s="230"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="229">
+      <c r="F19" s="231"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="246">
         <f>=AK42+AP42</f>
       </c>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="205"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="247"/>
       <c r="M19" s="23">
         <f>A19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="297" t="str">
+      <c r="N19" s="243">
         <f>C19</f>
-        <v>萬裕隆/430</v>
+        <v>0</v>
       </c>
-      <c r="O19" s="193"/>
-      <c r="P19" s="303">
+      <c r="O19" s="204"/>
+      <c r="P19" s="244">
         <f>=E19</f>
       </c>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="193"/>
-      <c r="S19" s="229">
+      <c r="Q19" s="231"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="246">
         <f>=AU42</f>
       </c>
-      <c r="T19" s="230"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="230"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="205"/>
+      <c r="T19" s="231"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="231"/>
+      <c r="W19" s="231"/>
+      <c r="X19" s="247"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -5154,45 +5214,45 @@
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" ht="22.5" customHeight="true">
-      <c r="A20" s="241">
+      <c r="A20" s="239">
         <v>2</v>
       </c>
-      <c r="B20" s="193"/>
-      <c r="C20" s="302"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="303">
+      <c r="B20" s="204"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="244">
         <f>=AG42</f>
       </c>
-      <c r="F20" s="230"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="299">
+      <c r="F20" s="231"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="248">
         <f>=AL42+AQ42</f>
       </c>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="205"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="247"/>
       <c r="M20" s="23">
         <v>2</v>
       </c>
-      <c r="N20" s="297">
+      <c r="N20" s="243">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="193"/>
-      <c r="P20" s="303">
+      <c r="O20" s="204"/>
+      <c r="P20" s="244">
         <f>=E20</f>
       </c>
-      <c r="Q20" s="230"/>
-      <c r="R20" s="193"/>
-      <c r="S20" s="229">
+      <c r="Q20" s="231"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="246">
         <f>=AV42</f>
       </c>
-      <c r="T20" s="230"/>
-      <c r="U20" s="230"/>
-      <c r="V20" s="230"/>
-      <c r="W20" s="230"/>
-      <c r="X20" s="205"/>
+      <c r="T20" s="231"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="231"/>
+      <c r="W20" s="231"/>
+      <c r="X20" s="247"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -5223,45 +5283,45 @@
       <c r="AZ20" s="1"/>
     </row>
     <row r="21" spans="1:52" ht="22.5" customHeight="true">
-      <c r="A21" s="241">
+      <c r="A21" s="239">
         <v>3</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="302"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="303">
+      <c r="B21" s="204"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="244">
         <f>=AH42</f>
       </c>
-      <c r="F21" s="230"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="299">
+      <c r="F21" s="231"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="248">
         <f>=AM42+AR42</f>
       </c>
-      <c r="I21" s="230"/>
-      <c r="J21" s="230"/>
-      <c r="K21" s="230"/>
-      <c r="L21" s="205"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="247"/>
       <c r="M21" s="23">
         <v>3</v>
       </c>
-      <c r="N21" s="297">
+      <c r="N21" s="243">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="193"/>
-      <c r="P21" s="303">
+      <c r="O21" s="204"/>
+      <c r="P21" s="244">
         <f>=E21</f>
       </c>
-      <c r="Q21" s="230"/>
-      <c r="R21" s="193"/>
-      <c r="S21" s="229">
+      <c r="Q21" s="231"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="246">
         <f>=AW42</f>
       </c>
-      <c r="T21" s="230"/>
-      <c r="U21" s="230"/>
-      <c r="V21" s="230"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="205"/>
+      <c r="T21" s="231"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="231"/>
+      <c r="W21" s="231"/>
+      <c r="X21" s="247"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -5292,45 +5352,45 @@
       <c r="AZ21" s="1"/>
     </row>
     <row r="22" spans="1:52" ht="22.5" customHeight="true">
-      <c r="A22" s="241">
+      <c r="A22" s="239">
         <v>4</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="302"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="303">
+      <c r="B22" s="204"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="244">
         <f>=AI42</f>
       </c>
-      <c r="F22" s="230"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="299">
+      <c r="F22" s="231"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="248">
         <f>=AN42+AS42</f>
       </c>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="205"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="231"/>
+      <c r="L22" s="247"/>
       <c r="M22" s="23">
         <v>4</v>
       </c>
-      <c r="N22" s="297">
+      <c r="N22" s="243">
         <f>C22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="193"/>
-      <c r="P22" s="303">
+      <c r="O22" s="204"/>
+      <c r="P22" s="244">
         <f>=E22</f>
       </c>
-      <c r="Q22" s="230"/>
-      <c r="R22" s="193"/>
-      <c r="S22" s="229">
+      <c r="Q22" s="231"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="246">
         <f>=AX42</f>
       </c>
-      <c r="T22" s="230"/>
-      <c r="U22" s="230"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="205"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="231"/>
+      <c r="W22" s="231"/>
+      <c r="X22" s="247"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -5361,45 +5421,45 @@
       <c r="AZ22" s="1"/>
     </row>
     <row r="23" spans="1:52" ht="22.5" customHeight="true">
-      <c r="A23" s="241">
+      <c r="A23" s="239">
         <v>5</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="303">
+      <c r="B23" s="204"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="244">
         <f>=AJ42</f>
       </c>
-      <c r="F23" s="230"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="299">
+      <c r="F23" s="231"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="248">
         <f>=AO42+AT42</f>
       </c>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="205"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="247"/>
       <c r="M23" s="23">
         <v>5</v>
       </c>
-      <c r="N23" s="297">
+      <c r="N23" s="243">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="193"/>
-      <c r="P23" s="303">
+      <c r="O23" s="204"/>
+      <c r="P23" s="244">
         <f>=E23</f>
       </c>
-      <c r="Q23" s="230"/>
-      <c r="R23" s="193"/>
-      <c r="S23" s="229">
+      <c r="Q23" s="231"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="246">
         <f>=AY42</f>
       </c>
-      <c r="T23" s="230"/>
-      <c r="U23" s="230"/>
-      <c r="V23" s="230"/>
-      <c r="W23" s="230"/>
-      <c r="X23" s="205"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="231"/>
+      <c r="V23" s="231"/>
+      <c r="W23" s="231"/>
+      <c r="X23" s="247"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -5430,46 +5490,46 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" ht="22.5" customHeight="true">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="208">
+        <f>=SUM(E19:G23)</f>
+      </c>
+      <c r="F24" s="209"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="212"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="301">
-        <f>=SUM(E19:G23)</f>
-      </c>
-      <c r="F24" s="212"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="300">
+      <c r="I24" s="249">
         <f>=SUM(H19:L23)</f>
       </c>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="211" t="s">
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="251" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="209"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="208">
+        <f>=SUM(P19:R23)</f>
+      </c>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="212"/>
-      <c r="O24" s="213"/>
-      <c r="P24" s="301">
-        <f>=SUM(P19:R23)</f>
-      </c>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="231">
+      <c r="T24" s="298">
         <f>=SUM(S19:W23)</f>
       </c>
-      <c r="U24" s="212"/>
-      <c r="V24" s="212"/>
-      <c r="W24" s="212"/>
-      <c r="X24" s="207"/>
+      <c r="U24" s="209"/>
+      <c r="V24" s="209"/>
+      <c r="W24" s="209"/>
+      <c r="X24" s="250"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -5500,32 +5560,32 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="true">
-      <c r="A25" s="312" t="s">
-        <v>118</v>
+      <c r="A25" s="210" t="s">
+        <v>117</v>
       </c>
-      <c r="B25" s="269"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="269"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="269"/>
-      <c r="H25" s="269"/>
-      <c r="I25" s="269"/>
-      <c r="J25" s="269"/>
-      <c r="K25" s="269"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="269"/>
-      <c r="N25" s="269"/>
-      <c r="O25" s="269"/>
-      <c r="P25" s="269"/>
-      <c r="Q25" s="269"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="269"/>
-      <c r="T25" s="269"/>
-      <c r="U25" s="269"/>
-      <c r="V25" s="269"/>
-      <c r="W25" s="269"/>
-      <c r="X25" s="218"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="211"/>
+      <c r="O25" s="211"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="211"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="211"/>
+      <c r="W25" s="211"/>
+      <c r="X25" s="212"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -5556,34 +5616,34 @@
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="true">
-      <c r="A26" s="313" t="s">
+      <c r="A26" s="213" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="216" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="272"/>
-      <c r="C26" s="272"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="272"/>
-      <c r="F26" s="272"/>
-      <c r="G26" s="272"/>
-      <c r="H26" s="272"/>
-      <c r="I26" s="272"/>
-      <c r="J26" s="272"/>
-      <c r="K26" s="272"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="314" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="269"/>
-      <c r="O26" s="269"/>
-      <c r="P26" s="269"/>
-      <c r="Q26" s="269"/>
-      <c r="R26" s="269"/>
-      <c r="S26" s="269"/>
-      <c r="T26" s="269"/>
-      <c r="U26" s="269"/>
-      <c r="V26" s="269"/>
-      <c r="W26" s="269"/>
-      <c r="X26" s="218"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="211"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="211"/>
+      <c r="X26" s="212"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -5614,38 +5674,38 @@
       <c r="AZ26" s="1"/>
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="true">
-      <c r="A27" s="289" t="s">
+      <c r="A27" s="217" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="218">
+        <f>=V49</f>
+      </c>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="226"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="315">
-        <f>=V49</f>
-      </c>
-      <c r="I27" s="226"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="316" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="251"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="251"/>
-      <c r="Q27" s="251"/>
-      <c r="R27" s="199"/>
-      <c r="S27" s="317">
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="202"/>
+      <c r="S27" s="222">
         <f>=SUM(M50:M55)</f>
       </c>
-      <c r="T27" s="226"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="226"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="228"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="219"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -5676,42 +5736,42 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" ht="27" customHeight="true">
-      <c r="A28" s="241" t="s">
+      <c r="A28" s="239" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="246">
+        <f>=AB45</f>
+      </c>
+      <c r="I28" s="231"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="229">
-        <f>=AB45</f>
+      <c r="N28" s="231"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="28" t="s">
+        <v>120</v>
       </c>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
-      <c r="K28" s="230"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="243" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="230"/>
-      <c r="O28" s="230"/>
-      <c r="P28" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="244">
+      <c r="Q28" s="307">
         <f>=F55</f>
       </c>
-      <c r="R28" s="205"/>
-      <c r="S28" s="242">
+      <c r="R28" s="247"/>
+      <c r="S28" s="305">
         <f>=F58</f>
       </c>
-      <c r="T28" s="230"/>
-      <c r="U28" s="230"/>
-      <c r="V28" s="230"/>
-      <c r="W28" s="230"/>
-      <c r="X28" s="205"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="247"/>
       <c r="Y28" s="29"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -5742,38 +5802,38 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" ht="27" customHeight="true">
-      <c r="A29" s="241" t="s">
+      <c r="A29" s="239" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="246">
+        <f>=AD45</f>
+      </c>
+      <c r="I29" s="231"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="230"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="229">
-        <f>=AD45</f>
-      </c>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="241" t="s">
-        <v>35</v>
-      </c>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="230"/>
-      <c r="Q29" s="230"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="242">
+      <c r="N29" s="231"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="231"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="305">
         <f>=E46</f>
       </c>
-      <c r="T29" s="230"/>
-      <c r="U29" s="230"/>
-      <c r="V29" s="230"/>
-      <c r="W29" s="230"/>
-      <c r="X29" s="205"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="231"/>
+      <c r="W29" s="231"/>
+      <c r="X29" s="247"/>
       <c r="Y29" s="30"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -5804,38 +5864,38 @@
       <c r="AZ29" s="1"/>
     </row>
     <row r="30" spans="1:52" ht="27" customHeight="true">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="251" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="209"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="309">
+        <v>0</v>
+      </c>
+      <c r="I30" s="209"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="250"/>
+      <c r="M30" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="212"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="214">
-        <v>0</v>
-      </c>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="215" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30" s="212"/>
-      <c r="O30" s="212"/>
-      <c r="P30" s="212"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="216">
+      <c r="N30" s="209"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="310">
         <f>=AE45</f>
       </c>
-      <c r="T30" s="212"/>
-      <c r="U30" s="212"/>
-      <c r="V30" s="212"/>
-      <c r="W30" s="212"/>
-      <c r="X30" s="207"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="209"/>
+      <c r="V30" s="209"/>
+      <c r="W30" s="209"/>
+      <c r="X30" s="250"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -5867,7 +5927,7 @@
     </row>
     <row r="31" spans="1:52" ht="26.25" customHeight="true">
       <c r="A31" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5889,10 +5949,10 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="217" t="s">
-        <v>39</v>
+      <c r="V31" s="311" t="s">
+        <v>38</v>
       </c>
-      <c r="W31" s="218"/>
+      <c r="W31" s="212"/>
       <c r="X31" s="19">
         <f>=T55</f>
       </c>
@@ -5926,38 +5986,38 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="16.5" customHeight="true">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="312" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="238"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="221" t="s">
+      <c r="F32" s="238"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="221" t="s">
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="238"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="220"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="223" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="209"/>
-      <c r="U32" s="209"/>
-      <c r="V32" s="209"/>
-      <c r="W32" s="209"/>
-      <c r="X32" s="210"/>
+      <c r="T32" s="266"/>
+      <c r="U32" s="266"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="266"/>
+      <c r="X32" s="276"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -5988,32 +6048,32 @@
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="1:52" ht="67.5" customHeight="true">
-      <c r="A33" s="268"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="269"/>
-      <c r="I33" s="269"/>
-      <c r="J33" s="269"/>
-      <c r="K33" s="269"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="270"/>
-      <c r="N33" s="269"/>
-      <c r="O33" s="269"/>
-      <c r="P33" s="269"/>
-      <c r="Q33" s="269"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="270" t="s">
-        <v>44</v>
+      <c r="A33" s="240"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="211"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="291"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="211"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="211"/>
+      <c r="R33" s="212"/>
+      <c r="S33" s="291" t="s">
+        <v>43</v>
       </c>
-      <c r="T33" s="269"/>
-      <c r="U33" s="269"/>
-      <c r="V33" s="269"/>
-      <c r="W33" s="269"/>
-      <c r="X33" s="218"/>
+      <c r="T33" s="211"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="211"/>
+      <c r="W33" s="211"/>
+      <c r="X33" s="212"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
@@ -6075,127 +6135,127 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="208" t="s">
+      <c r="AF34" s="308" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG34" s="266"/>
+      <c r="AH34" s="266"/>
+      <c r="AI34" s="266"/>
+      <c r="AJ34" s="276"/>
+      <c r="AK34" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="AG34" s="209"/>
-      <c r="AH34" s="209"/>
-      <c r="AI34" s="209"/>
-      <c r="AJ34" s="210"/>
-      <c r="AK34" s="208" t="s">
+      <c r="AL34" s="266"/>
+      <c r="AM34" s="266"/>
+      <c r="AN34" s="266"/>
+      <c r="AO34" s="276"/>
+      <c r="AP34" s="308" t="s">
         <v>46</v>
       </c>
-      <c r="AL34" s="209"/>
-      <c r="AM34" s="209"/>
-      <c r="AN34" s="209"/>
-      <c r="AO34" s="210"/>
-      <c r="AP34" s="208" t="s">
+      <c r="AQ34" s="266"/>
+      <c r="AR34" s="266"/>
+      <c r="AS34" s="266"/>
+      <c r="AT34" s="276"/>
+      <c r="AU34" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="AQ34" s="209"/>
-      <c r="AR34" s="209"/>
-      <c r="AS34" s="209"/>
-      <c r="AT34" s="210"/>
-      <c r="AU34" s="208" t="s">
+      <c r="AV34" s="266"/>
+      <c r="AW34" s="266"/>
+      <c r="AX34" s="266"/>
+      <c r="AY34" s="276"/>
+      <c r="AZ34" s="1"/>
+    </row>
+    <row r="35" spans="1:52" ht="38.25" customHeight="true">
+      <c r="A35" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AV34" s="209"/>
-      <c r="AW34" s="209"/>
-      <c r="AX34" s="209"/>
-      <c r="AY34" s="210"/>
-      <c r="AZ34" s="1"/>
-    </row>
-    <row r="35" spans="1:52" ht="38.25" customHeight="true">
-      <c r="A35" s="39" t="s">
+      <c r="B35" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>50</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="F35" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="G35" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="H35" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="I35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="J35" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="K35" s="191" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="191" t="s">
+      <c r="M35" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="46" t="s">
+      <c r="P35" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O35" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="P35" s="47" t="s">
+      <c r="Q35" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="Q35" s="47" t="s">
+      <c r="R35" s="316" t="s">
         <v>62</v>
       </c>
-      <c r="R35" s="194" t="s">
+      <c r="S35" s="267"/>
+      <c r="T35" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="S35" s="195"/>
-      <c r="T35" s="45" t="s">
+      <c r="U35" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="U35" s="48" t="s">
+      <c r="V35" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="W35" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W35" s="49" t="s">
+      <c r="X35" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="X35" s="186" t="s">
+      <c r="Y35" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="Y35" s="187" t="s">
+      <c r="Z35" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="Z35" s="50" t="s">
+      <c r="AA35" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="AA35" s="50" t="s">
+      <c r="AB35" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="AB35" s="50" t="s">
+      <c r="AC35" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="AC35" s="50" t="s">
+      <c r="AD35" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="AD35" s="51" t="s">
+      <c r="AE35" s="50" t="s">
         <v>74</v>
-      </c>
-      <c r="AE35" s="50" t="s">
-        <v>75</v>
       </c>
       <c r="AF35" s="52">
         <v>1</v>
@@ -6261,74 +6321,74 @@
     </row>
     <row r="36" spans="1:52" ht="18" customHeight="true">
       <c r="A36" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="C36" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="D36" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="E36" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="F36" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="H36" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="58" t="s">
+      <c r="I36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="M36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="N36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="O36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="P36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="R36" s="196" t="s">
+      <c r="S36" s="194"/>
+      <c r="T36" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="S36" s="197"/>
-      <c r="T36" s="60" t="s">
-        <v>83</v>
-      </c>
       <c r="U36" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V36" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W36" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y36" s="62"/>
       <c r="Z36" s="62"/>
@@ -6360,219 +6420,619 @@
       <c r="AZ36" s="67"/>
     </row>
     <row r="37" spans="1:52" ht="18" customHeight="true">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="322"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="198"/>
-      <c r="S37" s="199"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="82"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="83"/>
-      <c r="AD37" s="84"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="85"/>
-      <c r="AG37" s="86"/>
-      <c r="AH37" s="62"/>
-      <c r="AI37" s="62"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="87"/>
-      <c r="AL37" s="62"/>
-      <c r="AM37" s="62"/>
-      <c r="AN37" s="62"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="87"/>
-      <c r="AQ37" s="62"/>
-      <c r="AR37" s="62"/>
-      <c r="AS37" s="62"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="87"/>
-      <c r="AV37" s="62"/>
-      <c r="AW37" s="62"/>
-      <c r="AX37" s="62"/>
-      <c r="AY37" s="64"/>
+      <c r="A37" s="68">
+        <v>1</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="72">
+        <v>1</v>
+      </c>
+      <c r="F37" s="72">
+        <v>1</v>
+      </c>
+      <c r="G37" s="73">
+        <v>2175</v>
+      </c>
+      <c r="H37" s="74">
+        <v>1600</v>
+      </c>
+      <c r="I37" s="74">
+        <v>0</v>
+      </c>
+      <c r="J37" s="75">
+        <v>0</v>
+      </c>
+      <c r="K37" s="76">
+        <f>=H37+I37+J37</f>
+      </c>
+      <c r="L37" s="77">
+        <v>0</v>
+      </c>
+      <c r="M37" s="72">
+        <v>0</v>
+      </c>
+      <c r="N37" s="75">
+        <v>0</v>
+      </c>
+      <c r="O37" s="192">
+        <f>=U37+V37+W37+X37</f>
+      </c>
+      <c r="P37" s="78">
+        <f>=$T$52</f>
+      </c>
+      <c r="Q37" s="79">
+        <f>=G37-K37-M37-N37-O37-P37-L37</f>
+      </c>
+      <c r="R37" s="223">
+        <v>12000</v>
+      </c>
+      <c r="S37" s="202"/>
+      <c r="T37" s="80">
+        <f>=Q37*R37/1000*$T$55</f>
+      </c>
+      <c r="U37" s="74">
+        <v>0</v>
+      </c>
+      <c r="V37" s="74">
+        <v>0</v>
+      </c>
+      <c r="W37" s="74">
+        <v>45</v>
+      </c>
+      <c r="X37" s="81">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="82">
+        <f>=(K37+O37)-J37</f>
+      </c>
+      <c r="Z37" s="83">
+        <f>=ROUND(R37*G37/1000,2)</f>
+      </c>
+      <c r="AA37" s="83">
+        <f>=ROUND((H37+I37)*R37/1000,0)</f>
+      </c>
+      <c r="AB37" s="83">
+        <f>=ROUND(O37*R37/1000,0)</f>
+      </c>
+      <c r="AC37" s="83">
+        <f>=ROUND((H37+I37+O37)*R37/1000,0)</f>
+      </c>
+      <c r="AD37" s="84">
+        <f>=N37*R37/1000</f>
+      </c>
+      <c r="AE37" s="62">
+        <f>=(J37+L37)*R37/1000</f>
+      </c>
+      <c r="AF37" s="85">
+        <f>=IF(E37=1,R37/1000,"0")</f>
+      </c>
+      <c r="AG37" s="86">
+        <f>=IF(E37=2,R37/1000,"0")</f>
+      </c>
+      <c r="AH37" s="62">
+        <f>=IF(E37=3,R37/1000,"0")</f>
+      </c>
+      <c r="AI37" s="62">
+        <f>=IF(E37=4,R37/1000,"0")</f>
+      </c>
+      <c r="AJ37" s="64">
+        <f>=IF(E37=5,R37/1000,"0")</f>
+      </c>
+      <c r="AK37" s="87">
+        <f>=IF(E37=1,AA37,"0")</f>
+      </c>
+      <c r="AL37" s="62">
+        <f>=IF(E37=2,AA37,"0")</f>
+      </c>
+      <c r="AM37" s="62">
+        <f>=IF(E37=3,AA37,"0")</f>
+      </c>
+      <c r="AN37" s="62">
+        <f>=IF(E37=4,AA37,"0")</f>
+      </c>
+      <c r="AO37" s="64">
+        <f>=IF(E37=5,AA37,"0")</f>
+      </c>
+      <c r="AP37" s="87">
+        <f>=IF(F37=1,AB37,"0")</f>
+      </c>
+      <c r="AQ37" s="62">
+        <f>=IF(F37=2,AB37,"0")</f>
+      </c>
+      <c r="AR37" s="62">
+        <f>=IF(F37=3,AB37,"0")</f>
+      </c>
+      <c r="AS37" s="62">
+        <f>=IF(F37=4,AB37,"0")</f>
+      </c>
+      <c r="AT37" s="64">
+        <f>=IF(F37=5,AB37,"0")</f>
+      </c>
+      <c r="AU37" s="87">
+        <f>=IF(E37=1,Z37,"0")</f>
+      </c>
+      <c r="AV37" s="62">
+        <f>=IF(E37=2,Z37,"0")</f>
+      </c>
+      <c r="AW37" s="62">
+        <f>=IF(E37=3,Z37,"0")</f>
+      </c>
+      <c r="AX37" s="62">
+        <f>=IF(E37=4,Z37,"0")</f>
+      </c>
+      <c r="AY37" s="64">
+        <f>=IF(E37=5,Z37,"0")</f>
+      </c>
       <c r="AZ37" s="67"/>
     </row>
     <row r="38" spans="1:52" ht="18" customHeight="true">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="322"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="198"/>
-      <c r="S38" s="199"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="81"/>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="83"/>
-      <c r="AA38" s="83"/>
-      <c r="AB38" s="83"/>
-      <c r="AC38" s="83"/>
-      <c r="AD38" s="84"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="85"/>
-      <c r="AG38" s="86"/>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="64"/>
-      <c r="AK38" s="87"/>
-      <c r="AL38" s="62"/>
-      <c r="AM38" s="62"/>
-      <c r="AN38" s="62"/>
-      <c r="AO38" s="64"/>
-      <c r="AP38" s="87"/>
-      <c r="AQ38" s="62"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="62"/>
-      <c r="AT38" s="64"/>
-      <c r="AU38" s="87"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="62"/>
-      <c r="AX38" s="62"/>
-      <c r="AY38" s="64"/>
+      <c r="A38" s="68">
+        <v>2</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="72">
+        <v>1</v>
+      </c>
+      <c r="F38" s="72">
+        <v>1</v>
+      </c>
+      <c r="G38" s="73">
+        <v>2190</v>
+      </c>
+      <c r="H38" s="74">
+        <v>1600</v>
+      </c>
+      <c r="I38" s="74">
+        <v>0</v>
+      </c>
+      <c r="J38" s="75">
+        <v>0</v>
+      </c>
+      <c r="K38" s="76">
+        <f>=H38+I38+J38</f>
+      </c>
+      <c r="L38" s="77">
+        <v>0</v>
+      </c>
+      <c r="M38" s="72">
+        <v>0</v>
+      </c>
+      <c r="N38" s="75">
+        <v>0</v>
+      </c>
+      <c r="O38" s="192">
+        <f>=U38+V38+W38+X38</f>
+      </c>
+      <c r="P38" s="78">
+        <f>=$T$52</f>
+      </c>
+      <c r="Q38" s="79">
+        <f>=G38-K38-M38-N38-O38-P38-L38</f>
+      </c>
+      <c r="R38" s="223">
+        <v>4000</v>
+      </c>
+      <c r="S38" s="202"/>
+      <c r="T38" s="80">
+        <f>=Q38*R38/1000*$T$55</f>
+      </c>
+      <c r="U38" s="74">
+        <v>0</v>
+      </c>
+      <c r="V38" s="74">
+        <v>0</v>
+      </c>
+      <c r="W38" s="74">
+        <v>45</v>
+      </c>
+      <c r="X38" s="81">
+        <v>55</v>
+      </c>
+      <c r="Y38" s="82">
+        <f>=(K38+O38)-J38</f>
+      </c>
+      <c r="Z38" s="83">
+        <f>=ROUND(R38*G38/1000,2)</f>
+      </c>
+      <c r="AA38" s="83">
+        <f>=ROUND((H38+I38)*R38/1000,0)</f>
+      </c>
+      <c r="AB38" s="83">
+        <f>=ROUND(O38*R38/1000,0)</f>
+      </c>
+      <c r="AC38" s="83">
+        <f>=ROUND((H38+I38+O38)*R38/1000,0)</f>
+      </c>
+      <c r="AD38" s="84">
+        <f>=N38*R38/1000</f>
+      </c>
+      <c r="AE38" s="62">
+        <f>=(J38+L38)*R38/1000</f>
+      </c>
+      <c r="AF38" s="85">
+        <f>=IF(E38=1,R38/1000,"0")</f>
+      </c>
+      <c r="AG38" s="86">
+        <f>=IF(E38=2,R38/1000,"0")</f>
+      </c>
+      <c r="AH38" s="62">
+        <f>=IF(E38=3,R38/1000,"0")</f>
+      </c>
+      <c r="AI38" s="62">
+        <f>=IF(E38=4,R38/1000,"0")</f>
+      </c>
+      <c r="AJ38" s="64">
+        <f>=IF(E38=5,R38/1000,"0")</f>
+      </c>
+      <c r="AK38" s="87">
+        <f>=IF(E38=1,AA38,"0")</f>
+      </c>
+      <c r="AL38" s="62">
+        <f>=IF(E38=2,AA38,"0")</f>
+      </c>
+      <c r="AM38" s="62">
+        <f>=IF(E38=3,AA38,"0")</f>
+      </c>
+      <c r="AN38" s="62">
+        <f>=IF(E38=4,AA38,"0")</f>
+      </c>
+      <c r="AO38" s="64">
+        <f>=IF(E38=5,AA38,"0")</f>
+      </c>
+      <c r="AP38" s="87">
+        <f>=IF(F38=1,AB38,"0")</f>
+      </c>
+      <c r="AQ38" s="62">
+        <f>=IF(F38=2,AB38,"0")</f>
+      </c>
+      <c r="AR38" s="62">
+        <f>=IF(F38=3,AB38,"0")</f>
+      </c>
+      <c r="AS38" s="62">
+        <f>=IF(F38=4,AB38,"0")</f>
+      </c>
+      <c r="AT38" s="64">
+        <f>=IF(F38=5,AB38,"0")</f>
+      </c>
+      <c r="AU38" s="87">
+        <f>=IF(E38=1,Z38,"0")</f>
+      </c>
+      <c r="AV38" s="62">
+        <f>=IF(E38=2,Z38,"0")</f>
+      </c>
+      <c r="AW38" s="62">
+        <f>=IF(E38=3,Z38,"0")</f>
+      </c>
+      <c r="AX38" s="62">
+        <f>=IF(E38=4,Z38,"0")</f>
+      </c>
+      <c r="AY38" s="64">
+        <f>=IF(E38=5,Z38,"0")</f>
+      </c>
       <c r="AZ38" s="67"/>
     </row>
     <row r="39" spans="1:52" ht="18" customHeight="true">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="322"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="198"/>
-      <c r="S39" s="199"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="83"/>
-      <c r="AA39" s="83"/>
-      <c r="AB39" s="83"/>
-      <c r="AC39" s="83"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="85"/>
-      <c r="AG39" s="86"/>
-      <c r="AH39" s="62"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="87"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="64"/>
-      <c r="AP39" s="87"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="87"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="64"/>
+      <c r="A39" s="68">
+        <v>3</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="72">
+        <v>1</v>
+      </c>
+      <c r="F39" s="72">
+        <v>1</v>
+      </c>
+      <c r="G39" s="73">
+        <v>2390</v>
+      </c>
+      <c r="H39" s="74">
+        <v>1720</v>
+      </c>
+      <c r="I39" s="74">
+        <v>0</v>
+      </c>
+      <c r="J39" s="75">
+        <v>0</v>
+      </c>
+      <c r="K39" s="76">
+        <f>=H39+I39+J39</f>
+      </c>
+      <c r="L39" s="77">
+        <v>0</v>
+      </c>
+      <c r="M39" s="72">
+        <v>0</v>
+      </c>
+      <c r="N39" s="75">
+        <v>0</v>
+      </c>
+      <c r="O39" s="192">
+        <f>=U39+V39+W39+X39</f>
+      </c>
+      <c r="P39" s="78">
+        <f>=$T$52</f>
+      </c>
+      <c r="Q39" s="79">
+        <f>=G39-K39-M39-N39-O39-P39-L39</f>
+      </c>
+      <c r="R39" s="223">
+        <v>5000</v>
+      </c>
+      <c r="S39" s="202"/>
+      <c r="T39" s="80">
+        <f>=Q39*R39/1000*$T$55</f>
+      </c>
+      <c r="U39" s="74">
+        <v>0</v>
+      </c>
+      <c r="V39" s="74">
+        <v>0</v>
+      </c>
+      <c r="W39" s="74">
+        <v>0</v>
+      </c>
+      <c r="X39" s="81">
+        <v>60</v>
+      </c>
+      <c r="Y39" s="82">
+        <f>=(K39+O39)-J39</f>
+      </c>
+      <c r="Z39" s="83">
+        <f>=ROUND(R39*G39/1000,2)</f>
+      </c>
+      <c r="AA39" s="83">
+        <f>=ROUND((H39+I39)*R39/1000,0)</f>
+      </c>
+      <c r="AB39" s="83">
+        <f>=ROUND(O39*R39/1000,0)</f>
+      </c>
+      <c r="AC39" s="83">
+        <f>=ROUND((H39+I39+O39)*R39/1000,0)</f>
+      </c>
+      <c r="AD39" s="84">
+        <f>=N39*R39/1000</f>
+      </c>
+      <c r="AE39" s="62">
+        <f>=(J39+L39)*R39/1000</f>
+      </c>
+      <c r="AF39" s="85">
+        <f>=IF(E39=1,R39/1000,"0")</f>
+      </c>
+      <c r="AG39" s="86">
+        <f>=IF(E39=2,R39/1000,"0")</f>
+      </c>
+      <c r="AH39" s="62">
+        <f>=IF(E39=3,R39/1000,"0")</f>
+      </c>
+      <c r="AI39" s="62">
+        <f>=IF(E39=4,R39/1000,"0")</f>
+      </c>
+      <c r="AJ39" s="64">
+        <f>=IF(E39=5,R39/1000,"0")</f>
+      </c>
+      <c r="AK39" s="87">
+        <f>=IF(E39=1,AA39,"0")</f>
+      </c>
+      <c r="AL39" s="62">
+        <f>=IF(E39=2,AA39,"0")</f>
+      </c>
+      <c r="AM39" s="62">
+        <f>=IF(E39=3,AA39,"0")</f>
+      </c>
+      <c r="AN39" s="62">
+        <f>=IF(E39=4,AA39,"0")</f>
+      </c>
+      <c r="AO39" s="64">
+        <f>=IF(E39=5,AA39,"0")</f>
+      </c>
+      <c r="AP39" s="87">
+        <f>=IF(F39=1,AB39,"0")</f>
+      </c>
+      <c r="AQ39" s="62">
+        <f>=IF(F39=2,AB39,"0")</f>
+      </c>
+      <c r="AR39" s="62">
+        <f>=IF(F39=3,AB39,"0")</f>
+      </c>
+      <c r="AS39" s="62">
+        <f>=IF(F39=4,AB39,"0")</f>
+      </c>
+      <c r="AT39" s="64">
+        <f>=IF(F39=5,AB39,"0")</f>
+      </c>
+      <c r="AU39" s="87">
+        <f>=IF(E39=1,Z39,"0")</f>
+      </c>
+      <c r="AV39" s="62">
+        <f>=IF(E39=2,Z39,"0")</f>
+      </c>
+      <c r="AW39" s="62">
+        <f>=IF(E39=3,Z39,"0")</f>
+      </c>
+      <c r="AX39" s="62">
+        <f>=IF(E39=4,Z39,"0")</f>
+      </c>
+      <c r="AY39" s="64">
+        <f>=IF(E39=5,Z39,"0")</f>
+      </c>
       <c r="AZ39" s="67"/>
     </row>
     <row r="40" spans="1:52" ht="18" customHeight="true">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="322"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="198"/>
-      <c r="S40" s="199"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="83"/>
-      <c r="AA40" s="83"/>
-      <c r="AB40" s="83"/>
-      <c r="AC40" s="83"/>
-      <c r="AD40" s="84"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="85"/>
-      <c r="AG40" s="86"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="64"/>
-      <c r="AK40" s="87"/>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="62"/>
-      <c r="AN40" s="62"/>
-      <c r="AO40" s="64"/>
-      <c r="AP40" s="87"/>
-      <c r="AQ40" s="62"/>
-      <c r="AR40" s="62"/>
-      <c r="AS40" s="62"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="87"/>
-      <c r="AV40" s="62"/>
-      <c r="AW40" s="62"/>
-      <c r="AX40" s="62"/>
-      <c r="AY40" s="64"/>
+      <c r="A40" s="68">
+        <v>4</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="72">
+        <v>1</v>
+      </c>
+      <c r="F40" s="72">
+        <v>1</v>
+      </c>
+      <c r="G40" s="73">
+        <v>2300</v>
+      </c>
+      <c r="H40" s="74">
+        <v>1605</v>
+      </c>
+      <c r="I40" s="74">
+        <v>0</v>
+      </c>
+      <c r="J40" s="75">
+        <v>0</v>
+      </c>
+      <c r="K40" s="76">
+        <f>=H40+I40+J40</f>
+      </c>
+      <c r="L40" s="77">
+        <v>0</v>
+      </c>
+      <c r="M40" s="72">
+        <v>0</v>
+      </c>
+      <c r="N40" s="75">
+        <v>0</v>
+      </c>
+      <c r="O40" s="192">
+        <f>=U40+V40+W40+X40</f>
+      </c>
+      <c r="P40" s="78">
+        <f>=$T$52</f>
+      </c>
+      <c r="Q40" s="79">
+        <f>=G40-K40-M40-N40-O40-P40-L40</f>
+      </c>
+      <c r="R40" s="223">
+        <v>4000</v>
+      </c>
+      <c r="S40" s="202"/>
+      <c r="T40" s="80">
+        <f>=Q40*R40/1000*$T$55</f>
+      </c>
+      <c r="U40" s="74">
+        <v>0</v>
+      </c>
+      <c r="V40" s="74">
+        <v>45</v>
+      </c>
+      <c r="W40" s="74">
+        <v>55</v>
+      </c>
+      <c r="X40" s="81">
+        <v>40</v>
+      </c>
+      <c r="Y40" s="82">
+        <f>=(K40+O40)-J40</f>
+      </c>
+      <c r="Z40" s="83">
+        <f>=ROUND(R40*G40/1000,2)</f>
+      </c>
+      <c r="AA40" s="83">
+        <f>=ROUND((H40+I40)*R40/1000,0)</f>
+      </c>
+      <c r="AB40" s="83">
+        <f>=ROUND(O40*R40/1000,0)</f>
+      </c>
+      <c r="AC40" s="83">
+        <f>=ROUND((H40+I40+O40)*R40/1000,0)</f>
+      </c>
+      <c r="AD40" s="84">
+        <f>=N40*R40/1000</f>
+      </c>
+      <c r="AE40" s="62">
+        <f>=(J40+L40)*R40/1000</f>
+      </c>
+      <c r="AF40" s="85">
+        <f>=IF(E40=1,R40/1000,"0")</f>
+      </c>
+      <c r="AG40" s="86">
+        <f>=IF(E40=2,R40/1000,"0")</f>
+      </c>
+      <c r="AH40" s="62">
+        <f>=IF(E40=3,R40/1000,"0")</f>
+      </c>
+      <c r="AI40" s="62">
+        <f>=IF(E40=4,R40/1000,"0")</f>
+      </c>
+      <c r="AJ40" s="64">
+        <f>=IF(E40=5,R40/1000,"0")</f>
+      </c>
+      <c r="AK40" s="87">
+        <f>=IF(E40=1,AA40,"0")</f>
+      </c>
+      <c r="AL40" s="62">
+        <f>=IF(E40=2,AA40,"0")</f>
+      </c>
+      <c r="AM40" s="62">
+        <f>=IF(E40=3,AA40,"0")</f>
+      </c>
+      <c r="AN40" s="62">
+        <f>=IF(E40=4,AA40,"0")</f>
+      </c>
+      <c r="AO40" s="64">
+        <f>=IF(E40=5,AA40,"0")</f>
+      </c>
+      <c r="AP40" s="87">
+        <f>=IF(F40=1,AB40,"0")</f>
+      </c>
+      <c r="AQ40" s="62">
+        <f>=IF(F40=2,AB40,"0")</f>
+      </c>
+      <c r="AR40" s="62">
+        <f>=IF(F40=3,AB40,"0")</f>
+      </c>
+      <c r="AS40" s="62">
+        <f>=IF(F40=4,AB40,"0")</f>
+      </c>
+      <c r="AT40" s="64">
+        <f>=IF(F40=5,AB40,"0")</f>
+      </c>
+      <c r="AU40" s="87">
+        <f>=IF(E40=1,Z40,"0")</f>
+      </c>
+      <c r="AV40" s="62">
+        <f>=IF(E40=2,Z40,"0")</f>
+      </c>
+      <c r="AW40" s="62">
+        <f>=IF(E40=3,Z40,"0")</f>
+      </c>
+      <c r="AX40" s="62">
+        <f>=IF(E40=4,Z40,"0")</f>
+      </c>
+      <c r="AY40" s="64">
+        <f>=IF(E40=5,Z40,"0")</f>
+      </c>
       <c r="AZ40" s="67"/>
     </row>
     <row r="41" spans="1:52" ht="18" customHeight="true">
@@ -6630,32 +7090,32 @@
       <c r="AZ41" s="67"/>
     </row>
     <row r="42" spans="1:52" ht="21" customHeight="true">
-      <c r="A42" s="318" t="s">
-        <v>84</v>
+      <c r="A42" s="224" t="s">
+        <v>83</v>
       </c>
-      <c r="B42" s="222"/>
-      <c r="C42" s="222"/>
-      <c r="D42" s="222"/>
-      <c r="E42" s="222"/>
-      <c r="F42" s="222"/>
-      <c r="G42" s="222"/>
-      <c r="H42" s="222"/>
-      <c r="I42" s="222"/>
-      <c r="J42" s="222"/>
-      <c r="K42" s="222"/>
-      <c r="L42" s="222"/>
-      <c r="M42" s="222"/>
-      <c r="N42" s="222"/>
-      <c r="O42" s="222"/>
-      <c r="P42" s="222"/>
-      <c r="Q42" s="222"/>
-      <c r="R42" s="222"/>
-      <c r="S42" s="222"/>
-      <c r="T42" s="222"/>
-      <c r="U42" s="222"/>
-      <c r="V42" s="222"/>
-      <c r="W42" s="222"/>
-      <c r="X42" s="222"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="225"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="225"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="225"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
+      <c r="Q42" s="225"/>
+      <c r="R42" s="225"/>
+      <c r="S42" s="225"/>
+      <c r="T42" s="225"/>
+      <c r="U42" s="225"/>
+      <c r="V42" s="225"/>
+      <c r="W42" s="225"/>
+      <c r="X42" s="225"/>
       <c r="Y42" s="94"/>
       <c r="Z42" s="95"/>
       <c r="AA42" s="95"/>
@@ -6724,36 +7184,36 @@
         <f>=SUM(AY36:AY41)</f>
       </c>
       <c r="AZ42" s="99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" ht="21" customHeight="true">
+      <c r="A43" s="226" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:52" ht="21" customHeight="true">
-      <c r="A43" s="319" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="222"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="222"/>
-      <c r="E43" s="222"/>
-      <c r="F43" s="222"/>
-      <c r="G43" s="222"/>
-      <c r="H43" s="222"/>
-      <c r="I43" s="222"/>
-      <c r="J43" s="222"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="222"/>
-      <c r="M43" s="222"/>
-      <c r="N43" s="222"/>
-      <c r="O43" s="222"/>
-      <c r="P43" s="222"/>
-      <c r="Q43" s="222"/>
-      <c r="R43" s="222"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="222"/>
-      <c r="U43" s="222"/>
-      <c r="V43" s="222"/>
-      <c r="W43" s="222"/>
-      <c r="X43" s="222"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="225"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="225"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
+      <c r="O43" s="225"/>
+      <c r="P43" s="225"/>
+      <c r="Q43" s="225"/>
+      <c r="R43" s="225"/>
+      <c r="S43" s="225"/>
+      <c r="T43" s="225"/>
+      <c r="U43" s="225"/>
+      <c r="V43" s="225"/>
+      <c r="W43" s="225"/>
+      <c r="X43" s="225"/>
       <c r="Y43" s="100"/>
       <c r="Z43" s="95"/>
       <c r="AA43" s="95"/>
@@ -6860,14 +7320,14 @@
         <f>=SUM(R36:R41)</f>
       </c>
       <c r="R45" s="124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
-      <c r="S45" s="320">
+      <c r="S45" s="227">
         <f>=ROUND(SUM(T36:T41),0)</f>
       </c>
-      <c r="T45" s="228"/>
+      <c r="T45" s="219"/>
       <c r="U45" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V45" s="126"/>
       <c r="W45" s="127"/>
@@ -6918,25 +7378,25 @@
       <c r="B46" s="132"/>
       <c r="C46" s="118"/>
       <c r="D46" s="133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
-      <c r="E46" s="307">
+      <c r="E46" s="228">
         <f>=M37*Q45/1000</f>
       </c>
-      <c r="F46" s="222"/>
-      <c r="G46" s="222"/>
-      <c r="H46" s="222"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
       <c r="I46" s="134"/>
       <c r="J46" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="200" t="s">
-        <v>89</v>
+      <c r="K46" s="318" t="s">
+        <v>88</v>
       </c>
-      <c r="L46" s="193"/>
+      <c r="L46" s="204"/>
       <c r="M46" s="136"/>
       <c r="N46" s="137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O46" s="138">
         <v>0</v>
@@ -6944,12 +7404,12 @@
       <c r="P46" s="99"/>
       <c r="Q46" s="139"/>
       <c r="R46" s="140"/>
-      <c r="S46" s="204">
+      <c r="S46" s="321">
         <f>=$S$45/$T$55</f>
       </c>
-      <c r="T46" s="205"/>
+      <c r="T46" s="247"/>
       <c r="U46" s="141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V46" s="142"/>
       <c r="W46" s="143"/>
@@ -6988,23 +7448,23 @@
       <c r="B47" s="132"/>
       <c r="C47" s="118"/>
       <c r="D47" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="228">
+        <f>=Z45</f>
+      </c>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="225"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="319" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="307">
-        <f>=Z45</f>
-      </c>
-      <c r="F47" s="222"/>
-      <c r="G47" s="222"/>
-      <c r="H47" s="222"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="201" t="s">
-        <v>93</v>
-      </c>
-      <c r="L47" s="202"/>
+      <c r="L47" s="269"/>
       <c r="M47" s="136"/>
       <c r="N47" s="137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O47" s="138">
         <v>0</v>
@@ -7012,12 +7472,12 @@
       <c r="P47" s="146"/>
       <c r="Q47" s="99"/>
       <c r="R47" s="99"/>
-      <c r="S47" s="206">
+      <c r="S47" s="322">
         <f>=S45/(Z45*$T$55)</f>
       </c>
-      <c r="T47" s="207"/>
+      <c r="T47" s="250"/>
       <c r="U47" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V47" s="148"/>
       <c r="W47" s="149"/>
@@ -7062,13 +7522,13 @@
       <c r="H48" s="151"/>
       <c r="I48" s="99"/>
       <c r="J48" s="152"/>
-      <c r="K48" s="200" t="s">
-        <v>93</v>
+      <c r="K48" s="318" t="s">
+        <v>92</v>
       </c>
-      <c r="L48" s="193"/>
+      <c r="L48" s="204"/>
       <c r="M48" s="153"/>
       <c r="N48" s="154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O48" s="155">
         <v>0</v>
@@ -7115,30 +7575,30 @@
       <c r="A49" s="157"/>
       <c r="B49" s="158"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="308"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="220"/>
-      <c r="G49" s="220"/>
-      <c r="H49" s="220"/>
-      <c r="I49" s="220"/>
-      <c r="J49" s="220"/>
-      <c r="K49" s="220"/>
-      <c r="L49" s="220"/>
-      <c r="M49" s="220"/>
-      <c r="N49" s="220"/>
-      <c r="O49" s="220"/>
-      <c r="P49" s="220"/>
-      <c r="Q49" s="220"/>
-      <c r="R49" s="220"/>
-      <c r="S49" s="220"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="238"/>
+      <c r="G49" s="238"/>
+      <c r="H49" s="238"/>
+      <c r="I49" s="238"/>
+      <c r="J49" s="238"/>
+      <c r="K49" s="238"/>
+      <c r="L49" s="238"/>
+      <c r="M49" s="238"/>
+      <c r="N49" s="238"/>
+      <c r="O49" s="238"/>
+      <c r="P49" s="238"/>
+      <c r="Q49" s="238"/>
+      <c r="R49" s="238"/>
+      <c r="S49" s="238"/>
       <c r="T49" s="159"/>
       <c r="U49" s="160" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
-      <c r="V49" s="245">
+      <c r="V49" s="279">
         <f>=AA45</f>
       </c>
-      <c r="W49" s="245"/>
+      <c r="W49" s="279"/>
       <c r="X49" s="161"/>
       <c r="Y49" s="161"/>
       <c r="Z49" s="161"/>
@@ -7172,45 +7632,45 @@
     <row r="50" spans="1:52" ht="28.5" customHeight="true">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="310" t="s">
+      <c r="C50" s="233" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="305" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="193"/>
-      <c r="F50" s="311">
+      <c r="E50" s="204"/>
+      <c r="F50" s="236">
         <v>0</v>
       </c>
-      <c r="G50" s="193"/>
+      <c r="G50" s="204"/>
       <c r="H50" s="163">
         <f>=5620+(380*Q45/1000)</f>
       </c>
       <c r="I50" s="164"/>
-      <c r="J50" s="310" t="s">
+      <c r="J50" s="233" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="320" t="s">
         <v>99</v>
       </c>
-      <c r="K50" s="203" t="s">
+      <c r="L50" s="204"/>
+      <c r="M50" s="165">
         <v>100</v>
-      </c>
-      <c r="L50" s="193"/>
-      <c r="M50" s="165">
-        <v>0</v>
       </c>
       <c r="N50" s="163">
         <f>=M50*$T$55</f>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="164"/>
-      <c r="Q50" s="246" t="s">
-        <v>117</v>
+      <c r="Q50" s="242" t="s">
+        <v>116</v>
       </c>
-      <c r="R50" s="230"/>
-      <c r="S50" s="193"/>
-      <c r="T50" s="247">
+      <c r="R50" s="231"/>
+      <c r="S50" s="204"/>
+      <c r="T50" s="280">
         <f>=F57+M57</f>
       </c>
-      <c r="U50" s="248"/>
+      <c r="U50" s="281"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="8"/>
@@ -7246,43 +7706,43 @@
     <row r="51" spans="1:52" ht="28.5" customHeight="true">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="263"/>
-      <c r="D51" s="305" t="s">
-        <v>101</v>
+      <c r="C51" s="234"/>
+      <c r="D51" s="205" t="s">
+        <v>100</v>
       </c>
-      <c r="E51" s="193"/>
-      <c r="F51" s="306">
+      <c r="E51" s="204"/>
+      <c r="F51" s="203">
         <v>0</v>
       </c>
-      <c r="G51" s="193"/>
+      <c r="G51" s="204"/>
       <c r="H51" s="163">
         <f>=F51*(Q45/1000)*$T$55</f>
       </c>
       <c r="I51" s="164"/>
-      <c r="J51" s="263"/>
-      <c r="K51" s="249">
+      <c r="J51" s="234"/>
+      <c r="K51" s="282">
         <v>30</v>
       </c>
-      <c r="L51" s="193"/>
+      <c r="L51" s="204"/>
       <c r="M51" s="168">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="N51" s="163">
         <f>=M51*$T$55</f>
       </c>
       <c r="O51" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="P51" s="170"/>
+      <c r="Q51" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="P51" s="170"/>
-      <c r="Q51" s="246" t="s">
-        <v>103</v>
-      </c>
-      <c r="R51" s="230"/>
-      <c r="S51" s="193"/>
-      <c r="T51" s="247">
+      <c r="R51" s="231"/>
+      <c r="S51" s="204"/>
+      <c r="T51" s="280">
         <f>=Q45</f>
       </c>
-      <c r="U51" s="193"/>
+      <c r="U51" s="204"/>
       <c r="V51" s="171"/>
       <c r="W51" s="1"/>
       <c r="X51" s="8"/>
@@ -7318,24 +7778,24 @@
     <row r="52" spans="1:52" ht="28.5" customHeight="true">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="263"/>
-      <c r="D52" s="305" t="s">
-        <v>104</v>
+      <c r="C52" s="234"/>
+      <c r="D52" s="205" t="s">
+        <v>103</v>
       </c>
-      <c r="E52" s="193"/>
-      <c r="F52" s="306">
+      <c r="E52" s="204"/>
+      <c r="F52" s="203">
         <v>0</v>
       </c>
-      <c r="G52" s="193"/>
+      <c r="G52" s="204"/>
       <c r="H52" s="163">
         <f>=F52*$O$47*$T$55</f>
       </c>
       <c r="I52" s="164"/>
-      <c r="J52" s="263"/>
-      <c r="K52" s="234" t="s">
-        <v>105</v>
+      <c r="J52" s="234"/>
+      <c r="K52" s="241" t="s">
+        <v>104</v>
       </c>
-      <c r="L52" s="193"/>
+      <c r="L52" s="204"/>
       <c r="M52" s="165">
         <v>0</v>
       </c>
@@ -7344,15 +7804,15 @@
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="170"/>
-      <c r="Q52" s="246" t="s">
-        <v>106</v>
+      <c r="Q52" s="242" t="s">
+        <v>105</v>
       </c>
-      <c r="R52" s="230"/>
-      <c r="S52" s="193"/>
-      <c r="T52" s="192">
+      <c r="R52" s="231"/>
+      <c r="S52" s="204"/>
+      <c r="T52" s="315">
         <f>=$T$50/$T$51*1000/$T$55</f>
       </c>
-      <c r="U52" s="193"/>
+      <c r="U52" s="204"/>
       <c r="V52" s="171"/>
       <c r="W52" s="1"/>
       <c r="X52" s="8"/>
@@ -7388,24 +7848,24 @@
     <row r="53" spans="1:52" ht="28.5" customHeight="true">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="263"/>
+      <c r="C53" s="234"/>
       <c r="D53" s="162" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" s="172"/>
-      <c r="F53" s="306">
+      <c r="F53" s="203">
         <v>0</v>
       </c>
-      <c r="G53" s="193"/>
+      <c r="G53" s="204"/>
       <c r="H53" s="163">
         <f>=F53*$T$55</f>
       </c>
       <c r="I53" s="164"/>
-      <c r="J53" s="263"/>
-      <c r="K53" s="234" t="s">
-        <v>108</v>
+      <c r="J53" s="234"/>
+      <c r="K53" s="241" t="s">
+        <v>107</v>
       </c>
-      <c r="L53" s="193"/>
+      <c r="L53" s="204"/>
       <c r="M53" s="165">
         <v>0</v>
       </c>
@@ -7413,7 +7873,7 @@
         <f>=M53*$T$55</f>
       </c>
       <c r="O53" s="173" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P53" s="170"/>
       <c r="Q53" s="1"/>
@@ -7456,24 +7916,24 @@
     <row r="54" spans="1:52" ht="28.5" customHeight="true">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="263"/>
-      <c r="D54" s="305" t="s">
-        <v>110</v>
+      <c r="C54" s="234"/>
+      <c r="D54" s="205" t="s">
+        <v>109</v>
       </c>
-      <c r="E54" s="193"/>
-      <c r="F54" s="306">
+      <c r="E54" s="204"/>
+      <c r="F54" s="203">
         <v>0</v>
       </c>
-      <c r="G54" s="193"/>
+      <c r="G54" s="204"/>
       <c r="H54" s="163">
         <f>=F54*$O$48*$T$55</f>
       </c>
       <c r="I54" s="164"/>
-      <c r="J54" s="263"/>
-      <c r="K54" s="235" t="s">
-        <v>111</v>
+      <c r="J54" s="234"/>
+      <c r="K54" s="299" t="s">
+        <v>110</v>
       </c>
-      <c r="L54" s="193"/>
+      <c r="L54" s="204"/>
       <c r="M54" s="165">
         <v>0</v>
       </c>
@@ -7522,24 +7982,24 @@
     <row r="55" spans="1:52" ht="28.5" customHeight="true">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="263"/>
-      <c r="D55" s="305" t="s">
-        <v>112</v>
+      <c r="C55" s="234"/>
+      <c r="D55" s="205" t="s">
+        <v>111</v>
       </c>
-      <c r="E55" s="193"/>
-      <c r="F55" s="306">
-        <v>0</v>
+      <c r="E55" s="204"/>
+      <c r="F55" s="203">
+        <v>10000</v>
       </c>
-      <c r="G55" s="193"/>
+      <c r="G55" s="204"/>
       <c r="H55" s="163">
         <f>=F55*$O$46*$T$55</f>
       </c>
       <c r="I55" s="164"/>
-      <c r="J55" s="263"/>
-      <c r="K55" s="236" t="s">
-        <v>113</v>
+      <c r="J55" s="234"/>
+      <c r="K55" s="300" t="s">
+        <v>112</v>
       </c>
-      <c r="L55" s="193"/>
+      <c r="L55" s="204"/>
       <c r="M55" s="165">
         <v>0</v>
       </c>
@@ -7548,15 +8008,15 @@
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="170"/>
-      <c r="Q55" s="237" t="s">
-        <v>114</v>
+      <c r="Q55" s="301" t="s">
+        <v>113</v>
       </c>
-      <c r="R55" s="230"/>
-      <c r="S55" s="193"/>
-      <c r="T55" s="238">
-        <v>0</v>
+      <c r="R55" s="231"/>
+      <c r="S55" s="204"/>
+      <c r="T55" s="302">
+        <v>28</v>
       </c>
-      <c r="U55" s="193"/>
+      <c r="U55" s="204"/>
       <c r="V55" s="6"/>
       <c r="W55" s="1"/>
       <c r="X55" s="8"/>
@@ -7592,28 +8052,28 @@
     <row r="56" spans="1:52" ht="28.5" customHeight="true">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="263"/>
-      <c r="D56" s="305" t="s">
-        <v>115</v>
+      <c r="C56" s="234"/>
+      <c r="D56" s="205" t="s">
+        <v>114</v>
       </c>
-      <c r="E56" s="193"/>
-      <c r="F56" s="306">
+      <c r="E56" s="204"/>
+      <c r="F56" s="203">
         <v>0</v>
       </c>
-      <c r="G56" s="193"/>
+      <c r="G56" s="204"/>
       <c r="H56" s="163">
         <f>=F56*$O$46*$T$55</f>
       </c>
       <c r="I56" s="164"/>
-      <c r="J56" s="263"/>
-      <c r="K56" s="239">
+      <c r="J56" s="234"/>
+      <c r="K56" s="303">
         <v>30</v>
       </c>
-      <c r="L56" s="193"/>
-      <c r="M56" s="240">
+      <c r="L56" s="204"/>
+      <c r="M56" s="304">
         <v>0</v>
       </c>
-      <c r="N56" s="193"/>
+      <c r="N56" s="204"/>
       <c r="O56" s="164"/>
       <c r="P56" s="170"/>
       <c r="Q56" s="174"/>
@@ -7656,26 +8116,26 @@
     <row r="57" spans="1:52" ht="28.5" customHeight="true">
       <c r="A57" s="176"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="264"/>
-      <c r="D57" s="232" t="s">
-        <v>116</v>
+      <c r="C57" s="235"/>
+      <c r="D57" s="229" t="s">
+        <v>115</v>
       </c>
-      <c r="E57" s="193"/>
-      <c r="F57" s="233">
+      <c r="E57" s="204"/>
+      <c r="F57" s="230">
         <f>=SUM(H51:H56)+IF(F50=1,H50,0)</f>
       </c>
-      <c r="G57" s="230"/>
-      <c r="H57" s="193"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="204"/>
       <c r="I57" s="177"/>
-      <c r="J57" s="264"/>
-      <c r="K57" s="232" t="s">
-        <v>116</v>
+      <c r="J57" s="235"/>
+      <c r="K57" s="229" t="s">
+        <v>115</v>
       </c>
-      <c r="L57" s="193"/>
-      <c r="M57" s="233">
+      <c r="L57" s="204"/>
+      <c r="M57" s="230">
         <f>=SUM(N50:N55)</f>
       </c>
-      <c r="N57" s="193"/>
+      <c r="N57" s="204"/>
       <c r="O57" s="177"/>
       <c r="P57" s="178"/>
       <c r="Q57" s="179"/>
@@ -7721,11 +8181,11 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="309">
+      <c r="F58" s="232">
         <f>=F57/T55</f>
       </c>
-      <c r="G58" s="230"/>
-      <c r="H58" s="193"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="204"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -58263,16 +58723,166 @@
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AK34:AO34"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O13"/>
+    <mergeCell ref="P10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="T10:X13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:X33"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:X17"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="M7:O9"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="D49:S49"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
@@ -58297,166 +58907,16 @@
     <mergeCell ref="A43:X43"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="E46:H46"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="D49:S49"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M7:O9"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O13"/>
-    <mergeCell ref="P10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="T10:X13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:X33"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:X17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:X29"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AK34:AO34"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="73" type="noConversion"/>
   <dataValidations count="2">
